--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5467145570889946</v>
+        <v>0.5467145570889966</v>
       </c>
       <c r="D3">
-        <v>0.5926486889392784</v>
+        <v>0.5926486889392802</v>
       </c>
       <c r="E3">
-        <v>0.6124351435413875</v>
+        <v>0.6124351435413891</v>
       </c>
       <c r="F3">
-        <v>0.436861685273877</v>
+        <v>0.4368616852738813</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5979038643512775</v>
+        <v>0.5979038643512794</v>
       </c>
       <c r="K3">
-        <v>0.613886488055805</v>
+        <v>0.6138864880558068</v>
       </c>
       <c r="L3">
-        <v>0.632680774380576</v>
+        <v>0.6326807743805776</v>
       </c>
       <c r="M3">
-        <v>0.4711384580248189</v>
+        <v>0.4711384580248227</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,31 +494,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5174379113539213</v>
+        <v>0.5174379113539209</v>
       </c>
       <c r="D4">
-        <v>0.5667956243660075</v>
+        <v>0.5667956243660071</v>
       </c>
       <c r="E4">
-        <v>0.5886142787535718</v>
+        <v>0.5886142787535714</v>
       </c>
       <c r="F4">
-        <v>0.3671477772960041</v>
+        <v>0.3671477772960038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5702415784319905</v>
+        <v>0.5702415784319903</v>
       </c>
       <c r="K4">
-        <v>0.5881982939288393</v>
+        <v>0.588198293928839</v>
       </c>
       <c r="L4">
-        <v>0.6088618685863371</v>
+        <v>0.6088618685863368</v>
       </c>
       <c r="M4">
-        <v>0.4105210982421053</v>
+        <v>0.4105210982421049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5124262835778224</v>
+        <v>0.5124262835778223</v>
       </c>
       <c r="D5">
-        <v>0.5621504841955617</v>
+        <v>0.5621504841955612</v>
       </c>
       <c r="E5">
-        <v>0.5845106804177013</v>
+        <v>0.5845106804177008</v>
       </c>
       <c r="F5">
-        <v>0.3401079561691692</v>
+        <v>0.3401079561691723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5646439456310807</v>
+        <v>0.5646439456310804</v>
       </c>
       <c r="K5">
-        <v>0.5832713820567437</v>
+        <v>0.5832713820567432</v>
       </c>
       <c r="L5">
-        <v>0.6044568701651423</v>
+        <v>0.6044568701651419</v>
       </c>
       <c r="M5">
-        <v>0.3884242792837815</v>
+        <v>0.3884242792837839</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,31 +558,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5120440032619663</v>
+        <v>0.5120440032619661</v>
       </c>
       <c r="D6">
-        <v>0.5617588185178095</v>
+        <v>0.5617588185178093</v>
       </c>
       <c r="E6">
-        <v>0.5841896472169775</v>
+        <v>0.5841896472169771</v>
       </c>
       <c r="F6">
-        <v>0.3356748672215619</v>
+        <v>0.3356748672215631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5640802662955083</v>
+        <v>0.564080266295508</v>
       </c>
       <c r="K6">
-        <v>0.582810176554737</v>
+        <v>0.5828101765547367</v>
       </c>
       <c r="L6">
-        <v>0.6040664229107797</v>
+        <v>0.6040664229107794</v>
       </c>
       <c r="M6">
-        <v>0.3849065188852543</v>
+        <v>0.3849065188852552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -590,31 +590,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5173410741229352</v>
+        <v>0.5173410741229351</v>
       </c>
       <c r="D7">
-        <v>0.5667082857164289</v>
+        <v>0.5667082857164288</v>
       </c>
       <c r="E7">
-        <v>0.5885354783365352</v>
+        <v>0.588535478336535</v>
       </c>
       <c r="F7">
-        <v>0.3667797505627746</v>
+        <v>0.3667797505627728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.570142331357796</v>
+        <v>0.5701423313577958</v>
       </c>
       <c r="K7">
-        <v>0.5881086492597516</v>
+        <v>0.5881086492597517</v>
       </c>
       <c r="L7">
-        <v>0.6087802810802362</v>
+        <v>0.608780281080236</v>
       </c>
       <c r="M7">
-        <v>0.4102137029195603</v>
+        <v>0.4102137029195589</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -622,31 +622,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D8">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E8">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F8">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K8">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L8">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M8">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -654,31 +654,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D9">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E9">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F9">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K9">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L9">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M9">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -686,31 +686,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D10">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E10">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F10">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K10">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L10">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M10">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -718,31 +718,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D11">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E11">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F11">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K11">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L11">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M11">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -750,31 +750,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D12">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E12">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F12">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K12">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L12">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M12">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -782,31 +782,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D13">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E13">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F13">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K13">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L13">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M13">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -814,31 +814,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D14">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E14">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F14">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K14">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L14">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M14">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -846,31 +846,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D15">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E15">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F15">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K15">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L15">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M15">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -878,31 +878,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D16">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E16">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F16">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K16">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L16">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M16">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -910,31 +910,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D17">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E17">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F17">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K17">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L17">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M17">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -942,31 +942,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D18">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E18">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F18">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K18">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L18">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M18">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -974,31 +974,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D19">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E19">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F19">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K19">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L19">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M19">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1006,31 +1006,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D20">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E20">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F20">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K20">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L20">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M20">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1038,31 +1038,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D21">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E21">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F21">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K21">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L21">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M21">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1070,31 +1070,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D22">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E22">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F22">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K22">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L22">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M22">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1102,31 +1102,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D23">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E23">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F23">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K23">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L23">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M23">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1134,31 +1134,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D24">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E24">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F24">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K24">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L24">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M24">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1166,31 +1166,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6141798535854542</v>
+        <v>0.6141798535854601</v>
       </c>
       <c r="D25">
-        <v>0.6522287881001131</v>
+        <v>0.6522287881001182</v>
       </c>
       <c r="E25">
-        <v>0.6682991958208094</v>
+        <v>0.6682991958208143</v>
       </c>
       <c r="F25">
-        <v>0.5396246172498153</v>
+        <v>0.5396246172498234</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.658902029936636</v>
+        <v>0.6589020299366409</v>
       </c>
       <c r="K25">
-        <v>0.671779143199744</v>
+        <v>0.6717791431997491</v>
       </c>
       <c r="L25">
-        <v>0.6871881060721874</v>
+        <v>0.6871881060721919</v>
       </c>
       <c r="M25">
-        <v>0.5655144688981928</v>
+        <v>0.5655144688982005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5467145570889966</v>
+        <v>0.5467145570889946</v>
       </c>
       <c r="D3">
-        <v>0.5926486889392802</v>
+        <v>0.5926486889392784</v>
       </c>
       <c r="E3">
-        <v>0.6124351435413891</v>
+        <v>0.6124351435413875</v>
       </c>
       <c r="F3">
-        <v>0.4368616852738813</v>
+        <v>0.436861685273877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5979038643512794</v>
+        <v>0.5979038643512775</v>
       </c>
       <c r="K3">
-        <v>0.6138864880558068</v>
+        <v>0.613886488055805</v>
       </c>
       <c r="L3">
-        <v>0.6326807743805776</v>
+        <v>0.632680774380576</v>
       </c>
       <c r="M3">
-        <v>0.4711384580248227</v>
+        <v>0.4711384580248189</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,31 +494,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.5174379113539209</v>
+        <v>0.5174379113539213</v>
       </c>
       <c r="D4">
-        <v>0.5667956243660071</v>
+        <v>0.5667956243660075</v>
       </c>
       <c r="E4">
-        <v>0.5886142787535714</v>
+        <v>0.5886142787535718</v>
       </c>
       <c r="F4">
-        <v>0.3671477772960038</v>
+        <v>0.3671477772960041</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5702415784319903</v>
+        <v>0.5702415784319905</v>
       </c>
       <c r="K4">
-        <v>0.588198293928839</v>
+        <v>0.5881982939288393</v>
       </c>
       <c r="L4">
-        <v>0.6088618685863368</v>
+        <v>0.6088618685863371</v>
       </c>
       <c r="M4">
-        <v>0.4105210982421049</v>
+        <v>0.4105210982421053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5124262835778223</v>
+        <v>0.5124262835778224</v>
       </c>
       <c r="D5">
-        <v>0.5621504841955612</v>
+        <v>0.5621504841955617</v>
       </c>
       <c r="E5">
-        <v>0.5845106804177008</v>
+        <v>0.5845106804177013</v>
       </c>
       <c r="F5">
-        <v>0.3401079561691723</v>
+        <v>0.3401079561691692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5646439456310804</v>
+        <v>0.5646439456310807</v>
       </c>
       <c r="K5">
-        <v>0.5832713820567432</v>
+        <v>0.5832713820567437</v>
       </c>
       <c r="L5">
-        <v>0.6044568701651419</v>
+        <v>0.6044568701651423</v>
       </c>
       <c r="M5">
-        <v>0.3884242792837839</v>
+        <v>0.3884242792837815</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,31 +558,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5120440032619661</v>
+        <v>0.5120440032619663</v>
       </c>
       <c r="D6">
-        <v>0.5617588185178093</v>
+        <v>0.5617588185178095</v>
       </c>
       <c r="E6">
-        <v>0.5841896472169771</v>
+        <v>0.5841896472169775</v>
       </c>
       <c r="F6">
-        <v>0.3356748672215631</v>
+        <v>0.3356748672215619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.564080266295508</v>
+        <v>0.5640802662955083</v>
       </c>
       <c r="K6">
-        <v>0.5828101765547367</v>
+        <v>0.582810176554737</v>
       </c>
       <c r="L6">
-        <v>0.6040664229107794</v>
+        <v>0.6040664229107797</v>
       </c>
       <c r="M6">
-        <v>0.3849065188852552</v>
+        <v>0.3849065188852543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -590,31 +590,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.5173410741229351</v>
+        <v>0.5173410741229352</v>
       </c>
       <c r="D7">
-        <v>0.5667082857164288</v>
+        <v>0.5667082857164289</v>
       </c>
       <c r="E7">
-        <v>0.588535478336535</v>
+        <v>0.5885354783365352</v>
       </c>
       <c r="F7">
-        <v>0.3667797505627728</v>
+        <v>0.3667797505627746</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.5701423313577958</v>
+        <v>0.570142331357796</v>
       </c>
       <c r="K7">
-        <v>0.5881086492597517</v>
+        <v>0.5881086492597516</v>
       </c>
       <c r="L7">
-        <v>0.608780281080236</v>
+        <v>0.6087802810802362</v>
       </c>
       <c r="M7">
-        <v>0.4102137029195589</v>
+        <v>0.4102137029195603</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -622,31 +622,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D8">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E8">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F8">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K8">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L8">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M8">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -654,31 +654,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D9">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E9">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F9">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K9">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L9">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M9">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -686,31 +686,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D10">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E10">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F10">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K10">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L10">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M10">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -718,31 +718,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D11">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E11">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F11">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K11">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L11">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M11">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -750,31 +750,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D12">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E12">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F12">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K12">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L12">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M12">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -782,31 +782,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D13">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E13">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F13">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K13">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L13">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M13">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -814,31 +814,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D14">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E14">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F14">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K14">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L14">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M14">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -846,31 +846,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D15">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E15">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F15">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K15">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L15">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M15">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -878,31 +878,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D16">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E16">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F16">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K16">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L16">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M16">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -910,31 +910,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D17">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E17">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F17">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K17">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L17">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M17">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -942,31 +942,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D18">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E18">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F18">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K18">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L18">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M18">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -974,31 +974,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D19">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E19">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F19">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K19">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L19">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M19">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1006,31 +1006,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D20">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E20">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F20">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K20">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L20">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M20">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1038,31 +1038,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D21">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E21">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F21">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K21">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L21">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M21">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1070,31 +1070,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D22">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E22">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F22">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K22">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L22">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M22">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1102,31 +1102,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D23">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E23">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F23">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K23">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L23">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M23">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1134,31 +1134,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D24">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E24">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F24">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K24">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L24">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M24">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1166,31 +1166,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6141798535854601</v>
+        <v>0.6141798535854542</v>
       </c>
       <c r="D25">
-        <v>0.6522287881001182</v>
+        <v>0.6522287881001131</v>
       </c>
       <c r="E25">
-        <v>0.6682991958208143</v>
+        <v>0.6682991958208094</v>
       </c>
       <c r="F25">
-        <v>0.5396246172498234</v>
+        <v>0.5396246172498153</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.6589020299366409</v>
+        <v>0.658902029936636</v>
       </c>
       <c r="K25">
-        <v>0.6717791431997491</v>
+        <v>0.671779143199744</v>
       </c>
       <c r="L25">
-        <v>0.6871881060721919</v>
+        <v>0.6871881060721874</v>
       </c>
       <c r="M25">
-        <v>0.5655144688982005</v>
+        <v>0.5655144688981928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9537971171499721</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.962691538272437</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9663331833500378</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9280223635356757</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9774533881121102</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9746963279527373</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9782823679263922</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9405847049772197</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9959467723440665</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.960064802884332</v>
+      </c>
+      <c r="D3">
+        <v>0.9682312821963868</v>
+      </c>
+      <c r="E3">
+        <v>0.9714350341267636</v>
+      </c>
+      <c r="F3">
+        <v>0.9373354692858981</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9817066865569074</v>
+      </c>
+      <c r="K3">
+        <v>0.9792874618992019</v>
+      </c>
+      <c r="L3">
+        <v>0.9824469443727204</v>
+      </c>
+      <c r="M3">
+        <v>0.9488383330197355</v>
+      </c>
+      <c r="N3">
+        <v>0.997452402325339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.9640058749637732</v>
+      </c>
+      <c r="D4">
+        <v>0.971720799548179</v>
+      </c>
+      <c r="E4">
+        <v>0.9746501524728299</v>
+      </c>
+      <c r="F4">
+        <v>0.9431691737997323</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9843773869455725</v>
+      </c>
+      <c r="K4">
+        <v>0.9821729530360931</v>
+      </c>
+      <c r="L4">
+        <v>0.9850644728724028</v>
+      </c>
+      <c r="M4">
+        <v>0.9540056041810352</v>
+      </c>
+      <c r="N4">
+        <v>0.9983965650709834</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.9656368068157777</v>
+      </c>
+      <c r="D5">
+        <v>0.9731662866461726</v>
+      </c>
+      <c r="E5">
+        <v>0.9759822838509856</v>
+      </c>
+      <c r="F5">
+        <v>0.9455786675681241</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9854816838371554</v>
+      </c>
+      <c r="K5">
+        <v>0.9833666927835214</v>
+      </c>
+      <c r="L5">
+        <v>0.9861473667712832</v>
+      </c>
+      <c r="M5">
+        <v>0.9561391117599355</v>
+      </c>
+      <c r="N5">
+        <v>0.9987866381460085</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.9659091709379645</v>
+      </c>
+      <c r="D6">
+        <v>0.9734077636447828</v>
+      </c>
+      <c r="E6">
+        <v>0.9762048414548715</v>
+      </c>
+      <c r="F6">
+        <v>0.9459807950915088</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9856660458366666</v>
+      </c>
+      <c r="K6">
+        <v>0.9835660240689651</v>
+      </c>
+      <c r="L6">
+        <v>0.9863281891105303</v>
+      </c>
+      <c r="M6">
+        <v>0.9564951345367911</v>
+      </c>
+      <c r="N6">
+        <v>0.9988517408451796</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.9640277673819003</v>
+      </c>
+      <c r="D7">
+        <v>0.9717401971424301</v>
+      </c>
+      <c r="E7">
+        <v>0.9746680277135119</v>
+      </c>
+      <c r="F7">
+        <v>0.9432015346588893</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9843922138652224</v>
+      </c>
+      <c r="K7">
+        <v>0.982188978383289</v>
+      </c>
+      <c r="L7">
+        <v>0.9850790101492167</v>
+      </c>
+      <c r="M7">
+        <v>0.9540342613559871</v>
+      </c>
+      <c r="N7">
+        <v>0.9984018037352064</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.9559399885389549</v>
+      </c>
+      <c r="D8">
+        <v>0.9645841944612138</v>
+      </c>
+      <c r="E8">
+        <v>0.9680759102850738</v>
+      </c>
+      <c r="F8">
+        <v>0.9312115887384302</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.978908333240655</v>
+      </c>
+      <c r="K8">
+        <v>0.9762662712700086</v>
+      </c>
+      <c r="L8">
+        <v>0.9797064111034655</v>
+      </c>
+      <c r="M8">
+        <v>0.943411664329906</v>
+      </c>
+      <c r="N8">
+        <v>0.9964620550533293</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.9407347452529076</v>
+      </c>
+      <c r="D9">
+        <v>0.9511836520921151</v>
+      </c>
+      <c r="E9">
+        <v>0.9557445964462808</v>
+      </c>
+      <c r="F9">
+        <v>0.9084521315412064</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.9685690710358472</v>
+      </c>
+      <c r="K9">
+        <v>0.9651217195819844</v>
+      </c>
+      <c r="L9">
+        <v>0.9695989578122362</v>
+      </c>
+      <c r="M9">
+        <v>0.9232284206858128</v>
+      </c>
+      <c r="N9">
+        <v>0.9927961377247758</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.9298357956798601</v>
+      </c>
+      <c r="D10">
+        <v>0.9416189554412884</v>
+      </c>
+      <c r="E10">
+        <v>0.9469548441013133</v>
+      </c>
+      <c r="F10">
+        <v>0.8919267070123277</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.9611390254980108</v>
+      </c>
+      <c r="K10">
+        <v>0.9571288604573651</v>
+      </c>
+      <c r="L10">
+        <v>0.9623527771797744</v>
+      </c>
+      <c r="M10">
+        <v>0.9085660682437209</v>
+      </c>
+      <c r="N10">
+        <v>0.9901578250515644</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.9249035306098317</v>
+      </c>
+      <c r="D11">
+        <v>0.9373012847178769</v>
+      </c>
+      <c r="E11">
+        <v>0.9429905046023072</v>
+      </c>
+      <c r="F11">
+        <v>0.8843801549781135</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.9577722577961629</v>
+      </c>
+      <c r="K11">
+        <v>0.9535110800142936</v>
+      </c>
+      <c r="L11">
+        <v>0.9590740403655159</v>
+      </c>
+      <c r="M11">
+        <v>0.9018701341497574</v>
+      </c>
+      <c r="N11">
+        <v>0.9889619150094549</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.9230362601162745</v>
+      </c>
+      <c r="D12">
+        <v>0.93566841258224</v>
+      </c>
+      <c r="E12">
+        <v>0.9414918526825047</v>
+      </c>
+      <c r="F12">
+        <v>0.8815110840514595</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.9564970132141406</v>
+      </c>
+      <c r="K12">
+        <v>0.9521413864015018</v>
+      </c>
+      <c r="L12">
+        <v>0.9578329090683232</v>
+      </c>
+      <c r="M12">
+        <v>0.8993245931356866</v>
+      </c>
+      <c r="N12">
+        <v>0.9885089209977196</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.9234384459628693</v>
+      </c>
+      <c r="D13">
+        <v>0.9360200325516901</v>
+      </c>
+      <c r="E13">
+        <v>0.9418145417863305</v>
+      </c>
+      <c r="F13">
+        <v>0.8821296230765684</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.9567717134030771</v>
+      </c>
+      <c r="K13">
+        <v>0.9524364030449002</v>
+      </c>
+      <c r="L13">
+        <v>0.9581002251289248</v>
+      </c>
+      <c r="M13">
+        <v>0.8998733735299055</v>
+      </c>
+      <c r="N13">
+        <v>0.9886065001707749</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.924749919937993</v>
+      </c>
+      <c r="D14">
+        <v>0.9371669212209559</v>
+      </c>
+      <c r="E14">
+        <v>0.9428671731116334</v>
+      </c>
+      <c r="F14">
+        <v>0.8841443880827132</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.9576673630799287</v>
+      </c>
+      <c r="K14">
+        <v>0.9533984035391398</v>
+      </c>
+      <c r="L14">
+        <v>0.9589719356438154</v>
+      </c>
+      <c r="M14">
+        <v>0.9016609495565517</v>
+      </c>
+      <c r="N14">
+        <v>0.9889246541694628</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.9255531928686936</v>
+      </c>
+      <c r="D15">
+        <v>0.9378696159891888</v>
+      </c>
+      <c r="E15">
+        <v>0.9435121973164949</v>
+      </c>
+      <c r="F15">
+        <v>0.8853767761400868</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.9582158605661247</v>
+      </c>
+      <c r="K15">
+        <v>0.9539876177453115</v>
+      </c>
+      <c r="L15">
+        <v>0.959505875814031</v>
+      </c>
+      <c r="M15">
+        <v>0.9027543947474588</v>
+      </c>
+      <c r="N15">
+        <v>0.9891194918930231</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.9301583832888218</v>
+      </c>
+      <c r="D16">
+        <v>0.9419015780737896</v>
+      </c>
+      <c r="E16">
+        <v>0.9472144169417001</v>
+      </c>
+      <c r="F16">
+        <v>0.8924187219687719</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.9613591350449325</v>
+      </c>
+      <c r="K16">
+        <v>0.9573654655177248</v>
+      </c>
+      <c r="L16">
+        <v>0.9625672339840756</v>
+      </c>
+      <c r="M16">
+        <v>0.9090026347793045</v>
+      </c>
+      <c r="N16">
+        <v>0.9902360055535713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.9329879561640483</v>
+      </c>
+      <c r="D17">
+        <v>0.9443818272699636</v>
+      </c>
+      <c r="E17">
+        <v>0.9494927887325708</v>
+      </c>
+      <c r="F17">
+        <v>0.896726560494401</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.9632893353390776</v>
+      </c>
+      <c r="K17">
+        <v>0.9594407745807579</v>
+      </c>
+      <c r="L17">
+        <v>0.9644484020215393</v>
+      </c>
+      <c r="M17">
+        <v>0.9128249912049937</v>
+      </c>
+      <c r="N17">
+        <v>0.9909215501566938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.9346180915891482</v>
+      </c>
+      <c r="D18">
+        <v>0.9458117212262641</v>
+      </c>
+      <c r="E18">
+        <v>0.9508066230603369</v>
+      </c>
+      <c r="F18">
+        <v>0.8992020764573736</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.9644009286640476</v>
+      </c>
+      <c r="K18">
+        <v>0.9606363103976799</v>
+      </c>
+      <c r="L18">
+        <v>0.9655321963202085</v>
+      </c>
+      <c r="M18">
+        <v>0.9150214943211079</v>
+      </c>
+      <c r="N18">
+        <v>0.9913163098439065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.9351705715859686</v>
+      </c>
+      <c r="D19">
+        <v>0.9462965038063217</v>
+      </c>
+      <c r="E19">
+        <v>0.9512521107316966</v>
+      </c>
+      <c r="F19">
+        <v>0.9000400579721096</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.9647775966426722</v>
+      </c>
+      <c r="K19">
+        <v>0.9610414855829976</v>
+      </c>
+      <c r="L19">
+        <v>0.9658995171916925</v>
+      </c>
+      <c r="M19">
+        <v>0.9157650185012775</v>
+      </c>
+      <c r="N19">
+        <v>0.9914500672773803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.9326864919445746</v>
+      </c>
+      <c r="D20">
+        <v>0.9441174749066902</v>
+      </c>
+      <c r="E20">
+        <v>0.9492499188191132</v>
+      </c>
+      <c r="F20">
+        <v>0.8962682634790601</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.9630837330544819</v>
+      </c>
+      <c r="K20">
+        <v>0.9592196763650743</v>
+      </c>
+      <c r="L20">
+        <v>0.964247976612175</v>
+      </c>
+      <c r="M20">
+        <v>0.9124183449660414</v>
+      </c>
+      <c r="N20">
+        <v>0.9908485309528741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.9243647236178952</v>
+      </c>
+      <c r="D21">
+        <v>0.9368300174668035</v>
+      </c>
+      <c r="E21">
+        <v>0.9425579409069336</v>
+      </c>
+      <c r="F21">
+        <v>0.883552974567486</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.9574043172380808</v>
+      </c>
+      <c r="K21">
+        <v>0.9531158534700643</v>
+      </c>
+      <c r="L21">
+        <v>0.9587158989000082</v>
+      </c>
+      <c r="M21">
+        <v>0.9011362197293891</v>
+      </c>
+      <c r="N21">
+        <v>0.9888312146204861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.9189268411737778</v>
+      </c>
+      <c r="D22">
+        <v>0.9320781493052728</v>
+      </c>
+      <c r="E22">
+        <v>0.9381978887064568</v>
+      </c>
+      <c r="F22">
+        <v>0.8751722870297112</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.9536893144221938</v>
+      </c>
+      <c r="K22">
+        <v>0.9491269307944684</v>
+      </c>
+      <c r="L22">
+        <v>0.9551018128882205</v>
+      </c>
+      <c r="M22">
+        <v>0.8937010582421511</v>
+      </c>
+      <c r="N22">
+        <v>0.987511597892294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.9218302613229787</v>
+      </c>
+      <c r="D23">
+        <v>0.9346143021411067</v>
+      </c>
+      <c r="E23">
+        <v>0.9405245663640196</v>
+      </c>
+      <c r="F23">
+        <v>0.87965439356832</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.9556731999240307</v>
+      </c>
+      <c r="K23">
+        <v>0.9512567392546489</v>
+      </c>
+      <c r="L23">
+        <v>0.9570313584261804</v>
+      </c>
+      <c r="M23">
+        <v>0.8976773345494108</v>
+      </c>
+      <c r="N23">
+        <v>0.9882162874061999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.9328227731652886</v>
+      </c>
+      <c r="D24">
+        <v>0.9442369760630612</v>
+      </c>
+      <c r="E24">
+        <v>0.9493597077748319</v>
+      </c>
+      <c r="F24">
+        <v>0.8964754625204524</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.9631766797809143</v>
+      </c>
+      <c r="K24">
+        <v>0.9593196271813492</v>
+      </c>
+      <c r="L24">
+        <v>0.9643385816683494</v>
+      </c>
+      <c r="M24">
+        <v>0.9126021924587528</v>
+      </c>
+      <c r="N24">
+        <v>0.9908815409152208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9447902316876227</v>
+      </c>
+      <c r="D25">
+        <v>0.9547512174199158</v>
+      </c>
+      <c r="E25">
+        <v>0.9590257074148677</v>
+      </c>
+      <c r="F25">
+        <v>0.9145534567294376</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.9713300180825444</v>
+      </c>
+      <c r="K25">
+        <v>0.9680950741341482</v>
+      </c>
+      <c r="L25">
+        <v>0.9722952433810391</v>
+      </c>
+      <c r="M25">
+        <v>0.9286408352927144</v>
+      </c>
+      <c r="N25">
+        <v>0.9937758828440016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9537971171499721</v>
+        <v>1.007517189882854</v>
       </c>
       <c r="D2">
-        <v>0.962691538272437</v>
+        <v>1.010163023887674</v>
       </c>
       <c r="E2">
-        <v>0.9663331833500378</v>
+        <v>1.010173097929085</v>
       </c>
       <c r="F2">
-        <v>0.9280223635356757</v>
+        <v>1.00570656476623</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9774533881121102</v>
+        <v>1.012788370573424</v>
       </c>
       <c r="K2">
-        <v>0.9746963279527373</v>
+        <v>1.013034046953649</v>
       </c>
       <c r="L2">
-        <v>0.9782823679263922</v>
+        <v>1.013044090525428</v>
       </c>
       <c r="M2">
-        <v>0.9405847049772197</v>
+        <v>1.008591131989706</v>
       </c>
       <c r="N2">
-        <v>0.9959467723440665</v>
+        <v>1.008322484023764</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.960064802884332</v>
+        <v>1.008777202253876</v>
       </c>
       <c r="D3">
-        <v>0.9682312821963868</v>
+        <v>1.011333579330226</v>
       </c>
       <c r="E3">
-        <v>0.9714350341267636</v>
+        <v>1.011251613067969</v>
       </c>
       <c r="F3">
-        <v>0.9373354692858981</v>
+        <v>1.007621938967664</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9817066865569074</v>
+        <v>1.013678231869978</v>
       </c>
       <c r="K3">
-        <v>0.9792874618992019</v>
+        <v>1.014007589187392</v>
       </c>
       <c r="L3">
-        <v>0.9824469443727204</v>
+        <v>1.013925852672849</v>
       </c>
       <c r="M3">
-        <v>0.9488383330197355</v>
+        <v>1.010306393046803</v>
       </c>
       <c r="N3">
-        <v>0.997452402325339</v>
+        <v>1.008628179638942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9640058749637732</v>
+        <v>1.009591924433954</v>
       </c>
       <c r="D4">
-        <v>0.971720799548179</v>
+        <v>1.012090770948063</v>
       </c>
       <c r="E4">
-        <v>0.9746501524728299</v>
+        <v>1.011949264209807</v>
       </c>
       <c r="F4">
-        <v>0.9431691737997323</v>
+        <v>1.008860251563744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9843773869455725</v>
+        <v>1.014253038152566</v>
       </c>
       <c r="K4">
-        <v>0.9821729530360931</v>
+        <v>1.014636742348009</v>
       </c>
       <c r="L4">
-        <v>0.9850644728724028</v>
+        <v>1.014495612020765</v>
       </c>
       <c r="M4">
-        <v>0.9540056041810352</v>
+        <v>1.011414844666994</v>
       </c>
       <c r="N4">
-        <v>0.9983965650709834</v>
+        <v>1.008825338359081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9656368068157777</v>
+        <v>1.009934297215638</v>
       </c>
       <c r="D5">
-        <v>0.9731662866461726</v>
+        <v>1.012409041674543</v>
       </c>
       <c r="E5">
-        <v>0.9759822838509856</v>
+        <v>1.012242507248352</v>
       </c>
       <c r="F5">
-        <v>0.9455786675681241</v>
+        <v>1.009380597362823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9854816838371554</v>
+        <v>1.014494452321081</v>
       </c>
       <c r="K5">
-        <v>0.9833666927835214</v>
+        <v>1.014901051889394</v>
       </c>
       <c r="L5">
-        <v>0.9861473667712832</v>
+        <v>1.014734950459729</v>
       </c>
       <c r="M5">
-        <v>0.9561391117599355</v>
+        <v>1.011880505766299</v>
       </c>
       <c r="N5">
-        <v>0.9987866381460085</v>
+        <v>1.008908069990505</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9659091709379645</v>
+        <v>1.009991775252639</v>
       </c>
       <c r="D6">
-        <v>0.9734077636447828</v>
+        <v>1.01246247775598</v>
       </c>
       <c r="E6">
-        <v>0.9762048414548715</v>
+        <v>1.012291741235622</v>
       </c>
       <c r="F6">
-        <v>0.9459807950915088</v>
+        <v>1.009467951983472</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9856660458366666</v>
+        <v>1.014534973177194</v>
       </c>
       <c r="K6">
-        <v>0.9835660240689651</v>
+        <v>1.014945419794747</v>
       </c>
       <c r="L6">
-        <v>0.9863281891105303</v>
+        <v>1.01477512547815</v>
       </c>
       <c r="M6">
-        <v>0.9564951345367911</v>
+        <v>1.011958673196527</v>
       </c>
       <c r="N6">
-        <v>0.9988517408451796</v>
+        <v>1.00892195199838</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9640277673819003</v>
+        <v>1.009596499765874</v>
       </c>
       <c r="D7">
-        <v>0.9717401971424301</v>
+        <v>1.012095023899101</v>
       </c>
       <c r="E7">
-        <v>0.9746680277135119</v>
+        <v>1.011953182728163</v>
       </c>
       <c r="F7">
-        <v>0.9432015346588893</v>
+        <v>1.008867205379285</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9843922138652224</v>
+        <v>1.014256264857257</v>
       </c>
       <c r="K7">
-        <v>0.982188978383289</v>
+        <v>1.014640274793233</v>
       </c>
       <c r="L7">
-        <v>0.9850790101492167</v>
+        <v>1.014498810809175</v>
       </c>
       <c r="M7">
-        <v>0.9540342613559871</v>
+        <v>1.01142106814292</v>
       </c>
       <c r="N7">
-        <v>0.9984018037352064</v>
+        <v>1.008826444426729</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9559399885389549</v>
+        <v>1.007943142064123</v>
       </c>
       <c r="D8">
-        <v>0.9645841944612138</v>
+        <v>1.010558669789744</v>
       </c>
       <c r="E8">
-        <v>0.9680759102850738</v>
+        <v>1.010537634729583</v>
       </c>
       <c r="F8">
-        <v>0.9312115887384302</v>
+        <v>1.006354102649743</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.978908333240655</v>
+        <v>1.013089311152642</v>
       </c>
       <c r="K8">
-        <v>0.9762662712700086</v>
+        <v>1.013363226625048</v>
       </c>
       <c r="L8">
-        <v>0.9797064111034655</v>
+        <v>1.01334225360938</v>
       </c>
       <c r="M8">
-        <v>0.943411664329906</v>
+        <v>1.009171117304428</v>
       </c>
       <c r="N8">
-        <v>0.9964620550533293</v>
+        <v>1.008425929781417</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9407347452529076</v>
+        <v>1.005024977690948</v>
       </c>
       <c r="D9">
-        <v>0.9511836520921151</v>
+        <v>1.007849435501135</v>
       </c>
       <c r="E9">
-        <v>0.9557445964462808</v>
+        <v>1.008041425703835</v>
       </c>
       <c r="F9">
-        <v>0.9084521315412064</v>
+        <v>1.001916947197382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9685690710358472</v>
+        <v>1.011025225612805</v>
       </c>
       <c r="K9">
-        <v>0.9651217195819844</v>
+        <v>1.011106664175804</v>
       </c>
       <c r="L9">
-        <v>0.9695989578122362</v>
+        <v>1.011297989151957</v>
       </c>
       <c r="M9">
-        <v>0.9232284206858128</v>
+        <v>1.005194869748531</v>
       </c>
       <c r="N9">
-        <v>0.9927961377247758</v>
+        <v>1.007715175401642</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9298357956798601</v>
+        <v>1.003076043972148</v>
       </c>
       <c r="D10">
-        <v>0.9416189554412884</v>
+        <v>1.006041700691043</v>
       </c>
       <c r="E10">
-        <v>0.9469548441013133</v>
+        <v>1.006375848360975</v>
       </c>
       <c r="F10">
-        <v>0.8919267070123277</v>
+        <v>0.9989521099072129</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9611390254980108</v>
+        <v>1.009643729766757</v>
       </c>
       <c r="K10">
-        <v>0.9571288604573651</v>
+        <v>1.009597866282021</v>
       </c>
       <c r="L10">
-        <v>0.9623527771797744</v>
+        <v>1.009930740491634</v>
       </c>
       <c r="M10">
-        <v>0.9085660682437209</v>
+        <v>1.002535517254903</v>
       </c>
       <c r="N10">
-        <v>0.9901578250515644</v>
+        <v>1.007237918939261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9249035306098317</v>
+        <v>1.002231237537961</v>
       </c>
       <c r="D11">
-        <v>0.9373012847178769</v>
+        <v>1.005258501728548</v>
       </c>
       <c r="E11">
-        <v>0.9429905046023072</v>
+        <v>1.005654247396488</v>
       </c>
       <c r="F11">
-        <v>0.8843801549781135</v>
+        <v>0.9976665156659695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9577722577961629</v>
+        <v>1.00904418756963</v>
       </c>
       <c r="K11">
-        <v>0.9535110800142936</v>
+        <v>1.008943439922909</v>
       </c>
       <c r="L11">
-        <v>0.9590740403655159</v>
+        <v>1.009337617796227</v>
       </c>
       <c r="M11">
-        <v>0.9018701341497574</v>
+        <v>1.001381798509036</v>
       </c>
       <c r="N11">
-        <v>0.9889619150094549</v>
+        <v>1.007030436511824</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9230362601162745</v>
+        <v>1.001917296819954</v>
       </c>
       <c r="D12">
-        <v>0.93566841258224</v>
+        <v>1.004967516128488</v>
       </c>
       <c r="E12">
-        <v>0.9414918526825047</v>
+        <v>1.005386149240515</v>
       </c>
       <c r="F12">
-        <v>0.8815110840514595</v>
+        <v>0.9971887018993029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9564970132141406</v>
+        <v>1.008821284461942</v>
       </c>
       <c r="K12">
-        <v>0.9521413864015018</v>
+        <v>1.008700186052415</v>
       </c>
       <c r="L12">
-        <v>0.9578329090683232</v>
+        <v>1.009117137245418</v>
       </c>
       <c r="M12">
-        <v>0.8993245931356866</v>
+        <v>1.000952910667624</v>
       </c>
       <c r="N12">
-        <v>0.9885089209977196</v>
+        <v>1.006953242781246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9234384459628693</v>
+        <v>1.001984644691727</v>
       </c>
       <c r="D13">
-        <v>0.9360200325516901</v>
+        <v>1.005029936802071</v>
       </c>
       <c r="E13">
-        <v>0.9418145417863305</v>
+        <v>1.00544366014131</v>
       </c>
       <c r="F13">
-        <v>0.8821296230765684</v>
+        <v>0.9972912078179816</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9567717134030771</v>
+        <v>1.008869107346712</v>
       </c>
       <c r="K13">
-        <v>0.9524364030449002</v>
+        <v>1.008752372633971</v>
       </c>
       <c r="L13">
-        <v>0.9581002251289248</v>
+        <v>1.00916443875357</v>
       </c>
       <c r="M13">
-        <v>0.8998733735299055</v>
+        <v>1.001044924427577</v>
       </c>
       <c r="N13">
-        <v>0.9886065001707749</v>
+        <v>1.006969806798484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.924749919937993</v>
+        <v>1.002205290031676</v>
       </c>
       <c r="D14">
-        <v>0.9371669212209559</v>
+        <v>1.005234450237169</v>
       </c>
       <c r="E14">
-        <v>0.9428671731116334</v>
+        <v>1.005632087636968</v>
       </c>
       <c r="F14">
-        <v>0.8841443880827132</v>
+        <v>0.9976270253773062</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9576673630799287</v>
+        <v>1.009025766565622</v>
       </c>
       <c r="K14">
-        <v>0.9533984035391398</v>
+        <v>1.008923335992049</v>
       </c>
       <c r="L14">
-        <v>0.9589719356438154</v>
+        <v>1.009319396262325</v>
       </c>
       <c r="M14">
-        <v>0.9016609495565517</v>
+        <v>1.001346353635604</v>
       </c>
       <c r="N14">
-        <v>0.9889246541694628</v>
+        <v>1.007024058221722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9255531928686936</v>
+        <v>1.002341217912531</v>
       </c>
       <c r="D15">
-        <v>0.9378696159891888</v>
+        <v>1.005360448208953</v>
       </c>
       <c r="E15">
-        <v>0.9435121973164949</v>
+        <v>1.005748175508191</v>
       </c>
       <c r="F15">
-        <v>0.8853767761400868</v>
+        <v>0.997833895159757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9582158605661247</v>
+        <v>1.009122261995732</v>
       </c>
       <c r="K15">
-        <v>0.9539876177453115</v>
+        <v>1.00902864939447</v>
       </c>
       <c r="L15">
-        <v>0.959505875814031</v>
+        <v>1.009414848270601</v>
       </c>
       <c r="M15">
-        <v>0.9027543947474588</v>
+        <v>1.001532027921628</v>
       </c>
       <c r="N15">
-        <v>0.9891194918930231</v>
+        <v>1.007057467644408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9301583832888218</v>
+        <v>1.003132091409819</v>
       </c>
       <c r="D16">
-        <v>0.9419015780737896</v>
+        <v>1.006093669388492</v>
       </c>
       <c r="E16">
-        <v>0.9472144169417001</v>
+        <v>1.00642372997058</v>
       </c>
       <c r="F16">
-        <v>0.8924187219687719</v>
+        <v>0.9990373912417067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9613591350449325</v>
+        <v>1.00968349069489</v>
       </c>
       <c r="K16">
-        <v>0.9573654655177248</v>
+        <v>1.009641274701102</v>
       </c>
       <c r="L16">
-        <v>0.9625672339840756</v>
+        <v>1.009970080692238</v>
       </c>
       <c r="M16">
-        <v>0.9090026347793045</v>
+        <v>1.002612038143036</v>
       </c>
       <c r="N16">
-        <v>0.9902360055535713</v>
+        <v>1.007251671330573</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9329879561640483</v>
+        <v>1.003627938879378</v>
       </c>
       <c r="D17">
-        <v>0.9443818272699636</v>
+        <v>1.006553479023196</v>
       </c>
       <c r="E17">
-        <v>0.9494927887325708</v>
+        <v>1.006847378814024</v>
       </c>
       <c r="F17">
-        <v>0.896726560494401</v>
+        <v>0.9997918190738038</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9632893353390776</v>
+        <v>1.010035171399794</v>
       </c>
       <c r="K17">
-        <v>0.9594407745807579</v>
+        <v>1.010025258865606</v>
       </c>
       <c r="L17">
-        <v>0.9644484020215393</v>
+        <v>1.010318067441776</v>
       </c>
       <c r="M17">
-        <v>0.9128249912049937</v>
+        <v>1.003288900350847</v>
       </c>
       <c r="N17">
-        <v>0.9909215501566938</v>
+        <v>1.007373267829813</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9346180915891482</v>
+        <v>1.003917071380771</v>
       </c>
       <c r="D18">
-        <v>0.9458117212262641</v>
+        <v>1.00682163628692</v>
       </c>
       <c r="E18">
-        <v>0.9508066230603369</v>
+        <v>1.007094448185242</v>
       </c>
       <c r="F18">
-        <v>0.8992020764573736</v>
+        <v>1.000231691490648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9644009286640476</v>
+        <v>1.010240171289094</v>
       </c>
       <c r="K18">
-        <v>0.9606363103976799</v>
+        <v>1.010249123836221</v>
       </c>
       <c r="L18">
-        <v>0.9655321963202085</v>
+        <v>1.010520936836497</v>
       </c>
       <c r="M18">
-        <v>0.9150214943211079</v>
+        <v>1.003683491195755</v>
       </c>
       <c r="N18">
-        <v>0.9913163098439065</v>
+        <v>1.007444113279416</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9351705715859686</v>
+        <v>1.004015643525776</v>
       </c>
       <c r="D19">
-        <v>0.9462965038063217</v>
+        <v>1.006913064020034</v>
       </c>
       <c r="E19">
-        <v>0.9512521107316966</v>
+        <v>1.007178686161864</v>
       </c>
       <c r="F19">
-        <v>0.9000400579721096</v>
+        <v>1.000381647839342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9647775966426722</v>
+        <v>1.010310049115234</v>
       </c>
       <c r="K19">
-        <v>0.9610414855829976</v>
+        <v>1.010325438077179</v>
       </c>
       <c r="L19">
-        <v>0.9658995171916925</v>
+        <v>1.010590092297764</v>
       </c>
       <c r="M19">
-        <v>0.9157650185012775</v>
+        <v>1.003818001053591</v>
       </c>
       <c r="N19">
-        <v>0.9914500672773803</v>
+        <v>1.007468256260234</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9326864919445746</v>
+        <v>1.003574748174463</v>
       </c>
       <c r="D20">
-        <v>0.9441174749066902</v>
+        <v>1.006504150171865</v>
       </c>
       <c r="E20">
-        <v>0.9492499188191132</v>
+        <v>1.006801929245292</v>
       </c>
       <c r="F20">
-        <v>0.8962682634790601</v>
+        <v>0.9997108940757595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9630837330544819</v>
+        <v>1.009997452816173</v>
       </c>
       <c r="K20">
-        <v>0.9592196763650743</v>
+        <v>1.009984072046661</v>
       </c>
       <c r="L20">
-        <v>0.964247976612175</v>
+        <v>1.010280742685765</v>
       </c>
       <c r="M20">
-        <v>0.9124183449660414</v>
+        <v>1.003216301416195</v>
       </c>
       <c r="N20">
-        <v>0.9908485309528741</v>
+        <v>1.007360229932181</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9243647236178952</v>
+        <v>1.002140319446498</v>
       </c>
       <c r="D21">
-        <v>0.9368300174668035</v>
+        <v>1.005174228116868</v>
       </c>
       <c r="E21">
-        <v>0.9425579409069336</v>
+        <v>1.005576602219858</v>
       </c>
       <c r="F21">
-        <v>0.883552974567486</v>
+        <v>0.9975281435260553</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9574043172380808</v>
+        <v>1.008979640063874</v>
       </c>
       <c r="K21">
-        <v>0.9531158534700643</v>
+        <v>1.00887299629484</v>
       </c>
       <c r="L21">
-        <v>0.9587158989000082</v>
+        <v>1.009273769817297</v>
       </c>
       <c r="M21">
-        <v>0.9011362197293891</v>
+        <v>1.001257599897155</v>
       </c>
       <c r="N21">
-        <v>0.9888312146204861</v>
+        <v>1.007008086004692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9189268411737778</v>
+        <v>1.001237612647247</v>
       </c>
       <c r="D22">
-        <v>0.9320781493052728</v>
+        <v>1.004337642242208</v>
       </c>
       <c r="E22">
-        <v>0.9381978887064568</v>
+        <v>1.004805821458389</v>
       </c>
       <c r="F22">
-        <v>0.8751722870297112</v>
+        <v>0.9961540939351059</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9536893144221938</v>
+        <v>1.008338504223621</v>
       </c>
       <c r="K22">
-        <v>0.9491269307944684</v>
+        <v>1.008173428531071</v>
       </c>
       <c r="L22">
-        <v>0.9551018128882205</v>
+        <v>1.008639669918193</v>
       </c>
       <c r="M22">
-        <v>0.8937010582421511</v>
+        <v>1.000024081236138</v>
       </c>
       <c r="N22">
-        <v>0.987511597892294</v>
+        <v>1.006785952305349</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9218302613229787</v>
+        <v>1.001716234765744</v>
       </c>
       <c r="D23">
-        <v>0.9346143021411067</v>
+        <v>1.004781172838824</v>
       </c>
       <c r="E23">
-        <v>0.9405245663640196</v>
+        <v>1.005214463276155</v>
       </c>
       <c r="F23">
-        <v>0.87965439356832</v>
+        <v>0.9968826672004004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9556731999240307</v>
+        <v>1.008678497332354</v>
       </c>
       <c r="K23">
-        <v>0.9512567392546489</v>
+        <v>1.008544378016595</v>
       </c>
       <c r="L23">
-        <v>0.9570313584261804</v>
+        <v>1.00897591209132</v>
       </c>
       <c r="M23">
-        <v>0.8976773345494108</v>
+        <v>1.000678187788766</v>
       </c>
       <c r="N23">
-        <v>0.9882162874061999</v>
+        <v>1.006903778894003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9328227731652886</v>
+        <v>1.003598783033375</v>
       </c>
       <c r="D24">
-        <v>0.9442369760630612</v>
+        <v>1.00652643988628</v>
       </c>
       <c r="E24">
-        <v>0.9493597077748319</v>
+        <v>1.006822466066263</v>
       </c>
       <c r="F24">
-        <v>0.8964754625204524</v>
+        <v>0.9997474611321411</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9631766797809143</v>
+        <v>1.010014496620956</v>
       </c>
       <c r="K24">
-        <v>0.9593196271813492</v>
+        <v>1.010002682926595</v>
       </c>
       <c r="L24">
-        <v>0.9643385816683494</v>
+        <v>1.010297608462273</v>
       </c>
       <c r="M24">
-        <v>0.9126021924587528</v>
+        <v>1.003249106403021</v>
       </c>
       <c r="N24">
-        <v>0.9908815409152208</v>
+        <v>1.007366121443386</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9447902316876227</v>
+        <v>1.005779985857746</v>
       </c>
       <c r="D25">
-        <v>0.9547512174199158</v>
+        <v>1.008550097602331</v>
       </c>
       <c r="E25">
-        <v>0.9590257074148677</v>
+        <v>1.008686993834474</v>
       </c>
       <c r="F25">
-        <v>0.9145534567294376</v>
+        <v>1.00306518222948</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9713300180825444</v>
+        <v>1.011559783695783</v>
       </c>
       <c r="K25">
-        <v>0.9680950741341482</v>
+        <v>1.011690802469281</v>
       </c>
       <c r="L25">
-        <v>0.9722952433810391</v>
+        <v>1.011827242669469</v>
       </c>
       <c r="M25">
-        <v>0.9286408352927144</v>
+        <v>1.006224271044895</v>
       </c>
       <c r="N25">
-        <v>0.9937758828440016</v>
+        <v>1.007899520777064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.007517189882854</v>
+        <v>0.9537971171499726</v>
       </c>
       <c r="D2">
-        <v>1.010163023887674</v>
+        <v>0.9626915382724376</v>
       </c>
       <c r="E2">
-        <v>1.010173097929085</v>
+        <v>0.9663331833500383</v>
       </c>
       <c r="F2">
-        <v>1.00570656476623</v>
+        <v>0.9280223635356765</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.012788370573424</v>
+        <v>0.9774533881121108</v>
       </c>
       <c r="K2">
-        <v>1.013034046953649</v>
+        <v>0.9746963279527379</v>
       </c>
       <c r="L2">
-        <v>1.013044090525428</v>
+        <v>0.9782823679263928</v>
       </c>
       <c r="M2">
-        <v>1.008591131989706</v>
+        <v>0.9405847049772204</v>
       </c>
       <c r="N2">
-        <v>1.008322484023764</v>
+        <v>0.9959467723440667</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.008777202253876</v>
+        <v>0.960064802884332</v>
       </c>
       <c r="D3">
-        <v>1.011333579330226</v>
+        <v>0.9682312821963868</v>
       </c>
       <c r="E3">
-        <v>1.011251613067969</v>
+        <v>0.9714350341267639</v>
       </c>
       <c r="F3">
-        <v>1.007621938967664</v>
+        <v>0.9373354692858988</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.013678231869978</v>
+        <v>0.9817066865569076</v>
       </c>
       <c r="K3">
-        <v>1.014007589187392</v>
+        <v>0.9792874618992018</v>
       </c>
       <c r="L3">
-        <v>1.013925852672849</v>
+        <v>0.9824469443727207</v>
       </c>
       <c r="M3">
-        <v>1.010306393046803</v>
+        <v>0.9488383330197361</v>
       </c>
       <c r="N3">
-        <v>1.008628179638942</v>
+        <v>0.9974524023253392</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.009591924433954</v>
+        <v>0.9640058749637737</v>
       </c>
       <c r="D4">
-        <v>1.012090770948063</v>
+        <v>0.9717207995481797</v>
       </c>
       <c r="E4">
-        <v>1.011949264209807</v>
+        <v>0.9746501524728302</v>
       </c>
       <c r="F4">
-        <v>1.008860251563744</v>
+        <v>0.9431691737997318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.014253038152566</v>
+        <v>0.9843773869455728</v>
       </c>
       <c r="K4">
-        <v>1.014636742348009</v>
+        <v>0.9821729530360936</v>
       </c>
       <c r="L4">
-        <v>1.014495612020765</v>
+        <v>0.9850644728724031</v>
       </c>
       <c r="M4">
-        <v>1.011414844666994</v>
+        <v>0.9540056041810349</v>
       </c>
       <c r="N4">
-        <v>1.008825338359081</v>
+        <v>0.9983965650709834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009934297215638</v>
+        <v>0.9656368068157772</v>
       </c>
       <c r="D5">
-        <v>1.012409041674543</v>
+        <v>0.9731662866461716</v>
       </c>
       <c r="E5">
-        <v>1.012242507248352</v>
+        <v>0.9759822838509848</v>
       </c>
       <c r="F5">
-        <v>1.009380597362823</v>
+        <v>0.9455786675681231</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.014494452321081</v>
+        <v>0.9854816838371547</v>
       </c>
       <c r="K5">
-        <v>1.014901051889394</v>
+        <v>0.9833666927835203</v>
       </c>
       <c r="L5">
-        <v>1.014734950459729</v>
+        <v>0.9861473667712826</v>
       </c>
       <c r="M5">
-        <v>1.011880505766299</v>
+        <v>0.9561391117599347</v>
       </c>
       <c r="N5">
-        <v>1.008908069990505</v>
+        <v>0.9987866381460083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.009991775252639</v>
+        <v>0.9659091709379637</v>
       </c>
       <c r="D6">
-        <v>1.01246247775598</v>
+        <v>0.9734077636447823</v>
       </c>
       <c r="E6">
-        <v>1.012291741235622</v>
+        <v>0.9762048414548709</v>
       </c>
       <c r="F6">
-        <v>1.009467951983472</v>
+        <v>0.9459807950915079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.014534973177194</v>
+        <v>0.9856660458366659</v>
       </c>
       <c r="K6">
-        <v>1.014945419794747</v>
+        <v>0.9835660240689647</v>
       </c>
       <c r="L6">
-        <v>1.01477512547815</v>
+        <v>0.9863281891105297</v>
       </c>
       <c r="M6">
-        <v>1.011958673196527</v>
+        <v>0.9564951345367901</v>
       </c>
       <c r="N6">
-        <v>1.00892195199838</v>
+        <v>0.9988517408451792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.009596499765874</v>
+        <v>0.9640277673818999</v>
       </c>
       <c r="D7">
-        <v>1.012095023899101</v>
+        <v>0.9717401971424299</v>
       </c>
       <c r="E7">
-        <v>1.011953182728163</v>
+        <v>0.9746680277135114</v>
       </c>
       <c r="F7">
-        <v>1.008867205379285</v>
+        <v>0.9432015346588882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.014256264857257</v>
+        <v>0.9843922138652219</v>
       </c>
       <c r="K7">
-        <v>1.014640274793233</v>
+        <v>0.9821889783832887</v>
       </c>
       <c r="L7">
-        <v>1.014498810809175</v>
+        <v>0.9850790101492162</v>
       </c>
       <c r="M7">
-        <v>1.01142106814292</v>
+        <v>0.9540342613559861</v>
       </c>
       <c r="N7">
-        <v>1.008826444426729</v>
+        <v>0.9984018037352062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.007943142064123</v>
+        <v>0.9559399885389547</v>
       </c>
       <c r="D8">
-        <v>1.010558669789744</v>
+        <v>0.9645841944612137</v>
       </c>
       <c r="E8">
-        <v>1.010537634729583</v>
+        <v>0.9680759102850736</v>
       </c>
       <c r="F8">
-        <v>1.006354102649743</v>
+        <v>0.9312115887384304</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.013089311152642</v>
+        <v>0.9789083332406546</v>
       </c>
       <c r="K8">
-        <v>1.013363226625048</v>
+        <v>0.9762662712700084</v>
       </c>
       <c r="L8">
-        <v>1.01334225360938</v>
+        <v>0.979706411103465</v>
       </c>
       <c r="M8">
-        <v>1.009171117304428</v>
+        <v>0.9434116643299059</v>
       </c>
       <c r="N8">
-        <v>1.008425929781417</v>
+        <v>0.9964620550533292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005024977690948</v>
+        <v>0.9407347452529066</v>
       </c>
       <c r="D9">
-        <v>1.007849435501135</v>
+        <v>0.9511836520921142</v>
       </c>
       <c r="E9">
-        <v>1.008041425703835</v>
+        <v>0.9557445964462798</v>
       </c>
       <c r="F9">
-        <v>1.001916947197382</v>
+        <v>0.9084521315412061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.011025225612805</v>
+        <v>0.9685690710358466</v>
       </c>
       <c r="K9">
-        <v>1.011106664175804</v>
+        <v>0.9651217195819835</v>
       </c>
       <c r="L9">
-        <v>1.011297989151957</v>
+        <v>0.9695989578122353</v>
       </c>
       <c r="M9">
-        <v>1.005194869748531</v>
+        <v>0.9232284206858126</v>
       </c>
       <c r="N9">
-        <v>1.007715175401642</v>
+        <v>0.9927961377247754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003076043972148</v>
+        <v>0.9298357956798612</v>
       </c>
       <c r="D10">
-        <v>1.006041700691043</v>
+        <v>0.9416189554412895</v>
       </c>
       <c r="E10">
-        <v>1.006375848360975</v>
+        <v>0.9469548441013141</v>
       </c>
       <c r="F10">
-        <v>0.9989521099072129</v>
+        <v>0.8919267070123288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.009643729766757</v>
+        <v>0.9611390254980117</v>
       </c>
       <c r="K10">
-        <v>1.009597866282021</v>
+        <v>0.9571288604573663</v>
       </c>
       <c r="L10">
-        <v>1.009930740491634</v>
+        <v>0.962352777179775</v>
       </c>
       <c r="M10">
-        <v>1.002535517254903</v>
+        <v>0.9085660682437221</v>
       </c>
       <c r="N10">
-        <v>1.007237918939261</v>
+        <v>0.9901578250515648</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002231237537961</v>
+        <v>0.9249035306098322</v>
       </c>
       <c r="D11">
-        <v>1.005258501728548</v>
+        <v>0.9373012847178777</v>
       </c>
       <c r="E11">
-        <v>1.005654247396488</v>
+        <v>0.9429905046023078</v>
       </c>
       <c r="F11">
-        <v>0.9976665156659695</v>
+        <v>0.8843801549781135</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.00904418756963</v>
+        <v>0.9577722577961634</v>
       </c>
       <c r="K11">
-        <v>1.008943439922909</v>
+        <v>0.9535110800142944</v>
       </c>
       <c r="L11">
-        <v>1.009337617796227</v>
+        <v>0.9590740403655164</v>
       </c>
       <c r="M11">
-        <v>1.001381798509036</v>
+        <v>0.9018701341497575</v>
       </c>
       <c r="N11">
-        <v>1.007030436511824</v>
+        <v>0.9889619150094551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001917296819954</v>
+        <v>0.9230362601162736</v>
       </c>
       <c r="D12">
-        <v>1.004967516128488</v>
+        <v>0.9356684125822391</v>
       </c>
       <c r="E12">
-        <v>1.005386149240515</v>
+        <v>0.9414918526825039</v>
       </c>
       <c r="F12">
-        <v>0.9971887018993029</v>
+        <v>0.8815110840514592</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.008821284461942</v>
+        <v>0.9564970132141399</v>
       </c>
       <c r="K12">
-        <v>1.008700186052415</v>
+        <v>0.9521413864015009</v>
       </c>
       <c r="L12">
-        <v>1.009117137245418</v>
+        <v>0.9578329090683223</v>
       </c>
       <c r="M12">
-        <v>1.000952910667624</v>
+        <v>0.899324593135686</v>
       </c>
       <c r="N12">
-        <v>1.006953242781246</v>
+        <v>0.9885089209977194</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001984644691727</v>
+        <v>0.9234384459628698</v>
       </c>
       <c r="D13">
-        <v>1.005029936802071</v>
+        <v>0.936020032551691</v>
       </c>
       <c r="E13">
-        <v>1.00544366014131</v>
+        <v>0.9418145417863308</v>
       </c>
       <c r="F13">
-        <v>0.9972912078179816</v>
+        <v>0.8821296230765687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.008869107346712</v>
+        <v>0.9567717134030775</v>
       </c>
       <c r="K13">
-        <v>1.008752372633971</v>
+        <v>0.9524364030449007</v>
       </c>
       <c r="L13">
-        <v>1.00916443875357</v>
+        <v>0.958100225128925</v>
       </c>
       <c r="M13">
-        <v>1.001044924427577</v>
+        <v>0.8998733735299059</v>
       </c>
       <c r="N13">
-        <v>1.006969806798484</v>
+        <v>0.9886065001707752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002205290031676</v>
+        <v>0.9247499199379945</v>
       </c>
       <c r="D14">
-        <v>1.005234450237169</v>
+        <v>0.937166921220957</v>
       </c>
       <c r="E14">
-        <v>1.005632087636968</v>
+        <v>0.9428671731116346</v>
       </c>
       <c r="F14">
-        <v>0.9976270253773062</v>
+        <v>0.8841443880827146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.009025766565622</v>
+        <v>0.9576673630799299</v>
       </c>
       <c r="K14">
-        <v>1.008923335992049</v>
+        <v>0.9533984035391411</v>
       </c>
       <c r="L14">
-        <v>1.009319396262325</v>
+        <v>0.9589719356438164</v>
       </c>
       <c r="M14">
-        <v>1.001346353635604</v>
+        <v>0.9016609495565532</v>
       </c>
       <c r="N14">
-        <v>1.007024058221722</v>
+        <v>0.9889246541694634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002341217912531</v>
+        <v>0.925553192868694</v>
       </c>
       <c r="D15">
-        <v>1.005360448208953</v>
+        <v>0.9378696159891888</v>
       </c>
       <c r="E15">
-        <v>1.005748175508191</v>
+        <v>0.9435121973164949</v>
       </c>
       <c r="F15">
-        <v>0.997833895159757</v>
+        <v>0.885376776140087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.009122261995732</v>
+        <v>0.958215860566125</v>
       </c>
       <c r="K15">
-        <v>1.00902864939447</v>
+        <v>0.9539876177453115</v>
       </c>
       <c r="L15">
-        <v>1.009414848270601</v>
+        <v>0.9595058758140312</v>
       </c>
       <c r="M15">
-        <v>1.001532027921628</v>
+        <v>0.902754394747459</v>
       </c>
       <c r="N15">
-        <v>1.007057467644408</v>
+        <v>0.9891194918930232</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003132091409819</v>
+        <v>0.9301583832888215</v>
       </c>
       <c r="D16">
-        <v>1.006093669388492</v>
+        <v>0.9419015780737892</v>
       </c>
       <c r="E16">
-        <v>1.00642372997058</v>
+        <v>0.9472144169416998</v>
       </c>
       <c r="F16">
-        <v>0.9990373912417067</v>
+        <v>0.8924187219687716</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.00968349069489</v>
+        <v>0.9613591350449323</v>
       </c>
       <c r="K16">
-        <v>1.009641274701102</v>
+        <v>0.9573654655177245</v>
       </c>
       <c r="L16">
-        <v>1.009970080692238</v>
+        <v>0.9625672339840753</v>
       </c>
       <c r="M16">
-        <v>1.002612038143036</v>
+        <v>0.9090026347793041</v>
       </c>
       <c r="N16">
-        <v>1.007251671330573</v>
+        <v>0.9902360055535711</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003627938879378</v>
+        <v>0.9329879561640489</v>
       </c>
       <c r="D17">
-        <v>1.006553479023196</v>
+        <v>0.9443818272699639</v>
       </c>
       <c r="E17">
-        <v>1.006847378814024</v>
+        <v>0.9494927887325714</v>
       </c>
       <c r="F17">
-        <v>0.9997918190738038</v>
+        <v>0.8967265604944018</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.010035171399794</v>
+        <v>0.963289335339078</v>
       </c>
       <c r="K17">
-        <v>1.010025258865606</v>
+        <v>0.9594407745807584</v>
       </c>
       <c r="L17">
-        <v>1.010318067441776</v>
+        <v>0.9644484020215398</v>
       </c>
       <c r="M17">
-        <v>1.003288900350847</v>
+        <v>0.9128249912049942</v>
       </c>
       <c r="N17">
-        <v>1.007373267829813</v>
+        <v>0.9909215501566937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003917071380771</v>
+        <v>0.934618091589147</v>
       </c>
       <c r="D18">
-        <v>1.00682163628692</v>
+        <v>0.9458117212262631</v>
       </c>
       <c r="E18">
-        <v>1.007094448185242</v>
+        <v>0.9508066230603357</v>
       </c>
       <c r="F18">
-        <v>1.000231691490648</v>
+        <v>0.8992020764573722</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.010240171289094</v>
+        <v>0.9644009286640464</v>
       </c>
       <c r="K18">
-        <v>1.010249123836221</v>
+        <v>0.9606363103976789</v>
       </c>
       <c r="L18">
-        <v>1.010520936836497</v>
+        <v>0.9655321963202074</v>
       </c>
       <c r="M18">
-        <v>1.003683491195755</v>
+        <v>0.9150214943211065</v>
       </c>
       <c r="N18">
-        <v>1.007444113279416</v>
+        <v>0.9913163098439062</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004015643525776</v>
+        <v>0.9351705715859692</v>
       </c>
       <c r="D19">
-        <v>1.006913064020034</v>
+        <v>0.9462965038063225</v>
       </c>
       <c r="E19">
-        <v>1.007178686161864</v>
+        <v>0.9512521107316971</v>
       </c>
       <c r="F19">
-        <v>1.000381647839342</v>
+        <v>0.9000400579721103</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.010310049115234</v>
+        <v>0.9647775966426727</v>
       </c>
       <c r="K19">
-        <v>1.010325438077179</v>
+        <v>0.9610414855829982</v>
       </c>
       <c r="L19">
-        <v>1.010590092297764</v>
+        <v>0.9658995171916929</v>
       </c>
       <c r="M19">
-        <v>1.003818001053591</v>
+        <v>0.9157650185012781</v>
       </c>
       <c r="N19">
-        <v>1.007468256260234</v>
+        <v>0.9914500672773806</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003574748174463</v>
+        <v>0.9326864919445739</v>
       </c>
       <c r="D20">
-        <v>1.006504150171865</v>
+        <v>0.9441174749066895</v>
       </c>
       <c r="E20">
-        <v>1.006801929245292</v>
+        <v>0.949249918819112</v>
       </c>
       <c r="F20">
-        <v>0.9997108940757595</v>
+        <v>0.8962682634790594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.009997452816173</v>
+        <v>0.9630837330544813</v>
       </c>
       <c r="K20">
-        <v>1.009984072046661</v>
+        <v>0.9592196763650738</v>
       </c>
       <c r="L20">
-        <v>1.010280742685765</v>
+        <v>0.9642479766121738</v>
       </c>
       <c r="M20">
-        <v>1.003216301416195</v>
+        <v>0.9124183449660407</v>
       </c>
       <c r="N20">
-        <v>1.007360229932181</v>
+        <v>0.9908485309528742</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002140319446498</v>
+        <v>0.9243647236178947</v>
       </c>
       <c r="D21">
-        <v>1.005174228116868</v>
+        <v>0.9368300174668031</v>
       </c>
       <c r="E21">
-        <v>1.005576602219858</v>
+        <v>0.9425579409069329</v>
       </c>
       <c r="F21">
-        <v>0.9975281435260553</v>
+        <v>0.8835529745674856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.008979640063874</v>
+        <v>0.9574043172380804</v>
       </c>
       <c r="K21">
-        <v>1.00887299629484</v>
+        <v>0.9531158534700641</v>
       </c>
       <c r="L21">
-        <v>1.009273769817297</v>
+        <v>0.9587158989000076</v>
       </c>
       <c r="M21">
-        <v>1.001257599897155</v>
+        <v>0.9011362197293883</v>
       </c>
       <c r="N21">
-        <v>1.007008086004692</v>
+        <v>0.988831214620486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001237612647247</v>
+        <v>0.9189268411737771</v>
       </c>
       <c r="D22">
-        <v>1.004337642242208</v>
+        <v>0.9320781493052721</v>
       </c>
       <c r="E22">
-        <v>1.004805821458389</v>
+        <v>0.9381978887064559</v>
       </c>
       <c r="F22">
-        <v>0.9961540939351059</v>
+        <v>0.8751722870297112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.008338504223621</v>
+        <v>0.9536893144221932</v>
       </c>
       <c r="K22">
-        <v>1.008173428531071</v>
+        <v>0.9491269307944679</v>
       </c>
       <c r="L22">
-        <v>1.008639669918193</v>
+        <v>0.9551018128882196</v>
       </c>
       <c r="M22">
-        <v>1.000024081236138</v>
+        <v>0.8937010582421508</v>
       </c>
       <c r="N22">
-        <v>1.006785952305349</v>
+        <v>0.9875115978922938</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001716234765744</v>
+        <v>0.9218302613229802</v>
       </c>
       <c r="D23">
-        <v>1.004781172838824</v>
+        <v>0.9346143021411082</v>
       </c>
       <c r="E23">
-        <v>1.005214463276155</v>
+        <v>0.9405245663640206</v>
       </c>
       <c r="F23">
-        <v>0.9968826672004004</v>
+        <v>0.8796543935683212</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.008678497332354</v>
+        <v>0.9556731999240319</v>
       </c>
       <c r="K23">
-        <v>1.008544378016595</v>
+        <v>0.9512567392546502</v>
       </c>
       <c r="L23">
-        <v>1.00897591209132</v>
+        <v>0.9570313584261816</v>
       </c>
       <c r="M23">
-        <v>1.000678187788766</v>
+        <v>0.8976773345494121</v>
       </c>
       <c r="N23">
-        <v>1.006903778894003</v>
+        <v>0.9882162874062003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.003598783033375</v>
+        <v>0.9328227731652882</v>
       </c>
       <c r="D24">
-        <v>1.00652643988628</v>
+        <v>0.9442369760630602</v>
       </c>
       <c r="E24">
-        <v>1.006822466066263</v>
+        <v>0.9493597077748315</v>
       </c>
       <c r="F24">
-        <v>0.9997474611321411</v>
+        <v>0.8964754625204518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.010014496620956</v>
+        <v>0.9631766797809137</v>
       </c>
       <c r="K24">
-        <v>1.010002682926595</v>
+        <v>0.9593196271813484</v>
       </c>
       <c r="L24">
-        <v>1.010297608462273</v>
+        <v>0.964338581668349</v>
       </c>
       <c r="M24">
-        <v>1.003249106403021</v>
+        <v>0.9126021924587524</v>
       </c>
       <c r="N24">
-        <v>1.007366121443386</v>
+        <v>0.9908815409152208</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.005779985857746</v>
+        <v>0.9447902316876232</v>
       </c>
       <c r="D25">
-        <v>1.008550097602331</v>
+        <v>0.9547512174199164</v>
       </c>
       <c r="E25">
-        <v>1.008686993834474</v>
+        <v>0.9590257074148681</v>
       </c>
       <c r="F25">
-        <v>1.00306518222948</v>
+        <v>0.9145534567294383</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.011559783695783</v>
+        <v>0.9713300180825449</v>
       </c>
       <c r="K25">
-        <v>1.011690802469281</v>
+        <v>0.9680950741341485</v>
       </c>
       <c r="L25">
-        <v>1.011827242669469</v>
+        <v>0.9722952433810396</v>
       </c>
       <c r="M25">
-        <v>1.006224271044895</v>
+        <v>0.9286408352927152</v>
       </c>
       <c r="N25">
-        <v>1.007899520777064</v>
+        <v>0.9937758828440018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9537971171499726</v>
+        <v>1.000774359144061</v>
       </c>
       <c r="D2">
-        <v>0.9626915382724376</v>
+        <v>1.013337092613859</v>
       </c>
       <c r="E2">
-        <v>0.9663331833500383</v>
+        <v>1.007028126095346</v>
       </c>
       <c r="F2">
-        <v>0.9280223635356765</v>
+        <v>1.016957727289284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.047699919574394</v>
+      </c>
       <c r="J2">
-        <v>0.9774533881121108</v>
+        <v>1.022931933904611</v>
       </c>
       <c r="K2">
-        <v>0.9746963279527379</v>
+        <v>1.024613695684927</v>
       </c>
       <c r="L2">
-        <v>0.9782823679263928</v>
+        <v>1.018390408673543</v>
       </c>
       <c r="M2">
-        <v>0.9405847049772204</v>
+        <v>1.028185763012366</v>
       </c>
       <c r="N2">
-        <v>0.9959467723440667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011298734719317</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.030879465984089</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028474078573028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.960064802884332</v>
+        <v>1.005431912693895</v>
       </c>
       <c r="D3">
-        <v>0.9682312821963868</v>
+        <v>1.0168166042872</v>
       </c>
       <c r="E3">
-        <v>0.9714350341267639</v>
+        <v>1.010764372304152</v>
       </c>
       <c r="F3">
-        <v>0.9373354692858988</v>
+        <v>1.020380159109398</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.048858176165386</v>
+      </c>
       <c r="J3">
-        <v>0.9817066865569076</v>
+        <v>1.025775585688967</v>
       </c>
       <c r="K3">
-        <v>0.9792874618992018</v>
+        <v>1.02723874176548</v>
       </c>
       <c r="L3">
-        <v>0.9824469443727207</v>
+        <v>1.021261349041919</v>
       </c>
       <c r="M3">
-        <v>0.9488383330197361</v>
+        <v>1.030758747329413</v>
       </c>
       <c r="N3">
-        <v>0.9974524023253392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012276817514447</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032915835248467</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030327569045378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9640058749637737</v>
+        <v>1.008376960493723</v>
       </c>
       <c r="D4">
-        <v>0.9717207995481797</v>
+        <v>1.019023338489848</v>
       </c>
       <c r="E4">
-        <v>0.9746501524728302</v>
+        <v>1.013132548114928</v>
       </c>
       <c r="F4">
-        <v>0.9431691737997318</v>
+        <v>1.022554799570488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.049572500632409</v>
+      </c>
       <c r="J4">
-        <v>0.9843773869455728</v>
+        <v>1.027568783287424</v>
       </c>
       <c r="K4">
-        <v>0.9821729530360936</v>
+        <v>1.028897464628578</v>
       </c>
       <c r="L4">
-        <v>0.9850644728724031</v>
+        <v>1.023075017133339</v>
       </c>
       <c r="M4">
-        <v>0.9540056041810349</v>
+        <v>1.032388420810795</v>
       </c>
       <c r="N4">
-        <v>0.9983965650709834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012893526768473</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034205625118801</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031501367228516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9656368068157772</v>
+        <v>1.009604827639431</v>
       </c>
       <c r="D5">
-        <v>0.9731662866461716</v>
+        <v>1.019948037809187</v>
       </c>
       <c r="E5">
-        <v>0.9759822838509848</v>
+        <v>1.014121953600624</v>
       </c>
       <c r="F5">
-        <v>0.9455786675681231</v>
+        <v>1.023462224786285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.049866830582109</v>
+      </c>
       <c r="J5">
-        <v>0.9854816838371547</v>
+        <v>1.028317264751244</v>
       </c>
       <c r="K5">
-        <v>0.9833666927835203</v>
+        <v>1.029592806413947</v>
       </c>
       <c r="L5">
-        <v>0.9861473667712826</v>
+        <v>1.023832472153279</v>
       </c>
       <c r="M5">
-        <v>0.9561391117599347</v>
+        <v>1.033067779498894</v>
       </c>
       <c r="N5">
-        <v>0.9987866381460083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013151781436726</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034743296515282</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032000293869645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9659091709379637</v>
+        <v>1.009816939811179</v>
       </c>
       <c r="D6">
-        <v>0.9734077636447823</v>
+        <v>1.020111639686037</v>
       </c>
       <c r="E6">
-        <v>0.9762048414548709</v>
+        <v>1.014293831804891</v>
       </c>
       <c r="F6">
-        <v>0.9459807950915079</v>
+        <v>1.02361701802462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.049918546889943</v>
+      </c>
       <c r="J6">
-        <v>0.9856660458366659</v>
+        <v>1.028449006909399</v>
       </c>
       <c r="K6">
-        <v>0.9835660240689647</v>
+        <v>1.029717862206816</v>
       </c>
       <c r="L6">
-        <v>0.9863281891105297</v>
+        <v>1.023965402494469</v>
       </c>
       <c r="M6">
-        <v>0.9564951345367901</v>
+        <v>1.03318430756043</v>
       </c>
       <c r="N6">
-        <v>0.9988517408451792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013198280400146</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034835521401338</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032097559491447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9640277673818999</v>
+        <v>1.008411991800149</v>
       </c>
       <c r="D7">
-        <v>0.9717401971424299</v>
+        <v>1.019059832027204</v>
       </c>
       <c r="E7">
-        <v>0.9746680277135114</v>
+        <v>1.013163174714268</v>
       </c>
       <c r="F7">
-        <v>0.9432015346588882</v>
+        <v>1.022574984055246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.049583969131797</v>
+      </c>
       <c r="J7">
-        <v>0.9843922138652219</v>
+        <v>1.027596925616313</v>
       </c>
       <c r="K7">
-        <v>0.9821889783832887</v>
+        <v>1.028930611706525</v>
       </c>
       <c r="L7">
-        <v>0.9850790101492162</v>
+        <v>1.023102336861355</v>
       </c>
       <c r="M7">
-        <v>0.9540342613559861</v>
+        <v>1.032405462137166</v>
       </c>
       <c r="N7">
-        <v>0.9984018037352062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012906088405985</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034219112305048</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031545142433921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9559399885389547</v>
+        <v>1.002386658571038</v>
       </c>
       <c r="D8">
-        <v>0.9645841944612137</v>
+        <v>1.01455287063974</v>
       </c>
       <c r="E8">
-        <v>0.9680759102850736</v>
+        <v>1.00832348090483</v>
       </c>
       <c r="F8">
-        <v>0.9312115887384304</v>
+        <v>1.018133066521436</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.04810827077487</v>
+      </c>
       <c r="J8">
-        <v>0.9789083332406546</v>
+        <v>1.023925854736869</v>
       </c>
       <c r="K8">
-        <v>0.9762662712700084</v>
+        <v>1.025539257303563</v>
       </c>
       <c r="L8">
-        <v>0.979706411103465</v>
+        <v>1.019391873499173</v>
       </c>
       <c r="M8">
-        <v>0.9434116643299059</v>
+        <v>1.029072890562908</v>
       </c>
       <c r="N8">
-        <v>0.9964620550533292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011644386326215</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.031581577144175</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029151755725357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9407347452529066</v>
+        <v>0.9911846756202353</v>
       </c>
       <c r="D9">
-        <v>0.9511836520921142</v>
+        <v>1.006212107651506</v>
       </c>
       <c r="E9">
-        <v>0.9557445964462798</v>
+        <v>0.9993693892362957</v>
       </c>
       <c r="F9">
-        <v>0.9084521315412061</v>
+        <v>1.009971569039351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.045218638023312</v>
+      </c>
       <c r="J9">
-        <v>0.9685690710358466</v>
+        <v>1.017052612727862</v>
       </c>
       <c r="K9">
-        <v>0.9651217195819835</v>
+        <v>1.019205195403154</v>
       </c>
       <c r="L9">
-        <v>0.9695989578122353</v>
+        <v>1.012472705952457</v>
       </c>
       <c r="M9">
-        <v>0.9232284206858126</v>
+        <v>1.022904909926292</v>
       </c>
       <c r="N9">
-        <v>0.9927961377247754</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009276844714077</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.026699955443244</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024669783604362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9298357956798612</v>
+        <v>0.9834463540630616</v>
       </c>
       <c r="D10">
-        <v>0.9416189554412895</v>
+        <v>1.000508199263373</v>
       </c>
       <c r="E10">
-        <v>0.9469548441013141</v>
+        <v>0.9932363056979242</v>
       </c>
       <c r="F10">
-        <v>0.8919267070123288</v>
+        <v>1.004636038297673</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.043151580522474</v>
+      </c>
       <c r="J10">
-        <v>0.9611390254980117</v>
+        <v>1.012332496753878</v>
       </c>
       <c r="K10">
-        <v>0.9571288604573663</v>
+        <v>1.014868284073934</v>
       </c>
       <c r="L10">
-        <v>0.962352777179775</v>
+        <v>1.007728764098845</v>
       </c>
       <c r="M10">
-        <v>0.9085660682437221</v>
+        <v>1.01892208912736</v>
       </c>
       <c r="N10">
-        <v>0.9901578250515648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007666493122379</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.023600134745466</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021620306157701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9249035306098322</v>
+        <v>0.9811032852365703</v>
       </c>
       <c r="D11">
-        <v>0.9373012847178777</v>
+        <v>0.9989209458632791</v>
       </c>
       <c r="E11">
-        <v>0.9429905046023078</v>
+        <v>0.9915226359122052</v>
       </c>
       <c r="F11">
-        <v>0.8843801549781135</v>
+        <v>1.004952276035569</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.042650232115488</v>
+      </c>
       <c r="J11">
-        <v>0.9577722577961634</v>
+        <v>1.011283881588979</v>
       </c>
       <c r="K11">
-        <v>0.9535110800142944</v>
+        <v>1.013863240294838</v>
       </c>
       <c r="L11">
-        <v>0.9590740403655164</v>
+        <v>1.006606213467916</v>
       </c>
       <c r="M11">
-        <v>0.9018701341497575</v>
+        <v>1.019781400105952</v>
       </c>
       <c r="N11">
-        <v>0.9889619150094551</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007433415382273</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024723440248838</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.020943139618824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9230362601162736</v>
+        <v>0.9805751080460268</v>
       </c>
       <c r="D12">
-        <v>0.9356684125822391</v>
+        <v>0.9986191725736248</v>
       </c>
       <c r="E12">
-        <v>0.9414918526825039</v>
+        <v>0.9912041191153077</v>
       </c>
       <c r="F12">
-        <v>0.8815110840514592</v>
+        <v>1.005953610765869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.042598546314682</v>
+      </c>
       <c r="J12">
-        <v>0.9564970132141399</v>
+        <v>1.0112249389513</v>
       </c>
       <c r="K12">
-        <v>0.9521413864015009</v>
+        <v>1.013772874957763</v>
       </c>
       <c r="L12">
-        <v>0.9578329090683223</v>
+        <v>1.006501797008262</v>
       </c>
       <c r="M12">
-        <v>0.899324593135686</v>
+        <v>1.020967631003878</v>
       </c>
       <c r="N12">
-        <v>0.9885089209977194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007507783181821</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.02599251347406</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020879246085591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9234384459628698</v>
+        <v>0.9814319603580653</v>
       </c>
       <c r="D13">
-        <v>0.936020032551691</v>
+        <v>0.9993138085177643</v>
       </c>
       <c r="E13">
-        <v>0.9418145417863308</v>
+        <v>0.9919571730625594</v>
       </c>
       <c r="F13">
-        <v>0.8821296230765687</v>
+        <v>1.007578913281698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.042905183475877</v>
+      </c>
       <c r="J13">
-        <v>0.9567717134030775</v>
+        <v>1.011947904058246</v>
       </c>
       <c r="K13">
-        <v>0.9524364030449007</v>
+        <v>1.014410088547922</v>
       </c>
       <c r="L13">
-        <v>0.958100225128925</v>
+        <v>1.007195542340078</v>
       </c>
       <c r="M13">
-        <v>0.8998733735299059</v>
+        <v>1.022518788385537</v>
       </c>
       <c r="N13">
-        <v>0.9886065001707752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007835747802811</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.027498702566271</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021327253471125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9247499199379945</v>
+        <v>0.9826454749176809</v>
       </c>
       <c r="D14">
-        <v>0.937166921220957</v>
+        <v>1.000242086149226</v>
       </c>
       <c r="E14">
-        <v>0.9428671731116346</v>
+        <v>0.9929576981923279</v>
       </c>
       <c r="F14">
-        <v>0.8841443880827146</v>
+        <v>1.008969879926</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.043276508297572</v>
+      </c>
       <c r="J14">
-        <v>0.9576673630799299</v>
+        <v>1.012795193204529</v>
       </c>
       <c r="K14">
-        <v>0.9533984035391411</v>
+        <v>1.015176401393286</v>
       </c>
       <c r="L14">
-        <v>0.9589719356438164</v>
+        <v>1.008030800350714</v>
       </c>
       <c r="M14">
-        <v>0.9016609495565532</v>
+        <v>1.023741346687651</v>
       </c>
       <c r="N14">
-        <v>0.9889246541694634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008175363000286</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.028639975442363</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.021870532113206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.925553192868694</v>
+        <v>0.9832612439828372</v>
       </c>
       <c r="D15">
-        <v>0.9378696159891888</v>
+        <v>1.0007042066835</v>
       </c>
       <c r="E15">
-        <v>0.9435121973164949</v>
+        <v>0.9934522850051106</v>
       </c>
       <c r="F15">
-        <v>0.885376776140087</v>
+        <v>1.009496415376488</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.043452767000314</v>
+      </c>
       <c r="J15">
-        <v>0.958215860566125</v>
+        <v>1.013191927177897</v>
       </c>
       <c r="K15">
-        <v>0.9539876177453115</v>
+        <v>1.015541001082227</v>
       </c>
       <c r="L15">
-        <v>0.9595058758140312</v>
+        <v>1.00842612618392</v>
       </c>
       <c r="M15">
-        <v>0.902754394747459</v>
+        <v>1.02417049290685</v>
       </c>
       <c r="N15">
-        <v>0.9891194918930232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008321690237275</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.029016999164421</v>
+      </c>
+      <c r="Q15">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R15">
+        <v>1.022134302059881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9301583832888215</v>
+        <v>0.9863649098427345</v>
       </c>
       <c r="D16">
-        <v>0.9419015780737892</v>
+        <v>1.002976285241015</v>
       </c>
       <c r="E16">
-        <v>0.9472144169416998</v>
+        <v>0.9958894399659909</v>
       </c>
       <c r="F16">
-        <v>0.8924187219687716</v>
+        <v>1.011480366589803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.044285605652362</v>
+      </c>
       <c r="J16">
-        <v>0.9613591350449323</v>
+        <v>1.015051594733881</v>
       </c>
       <c r="K16">
-        <v>0.9573654655177245</v>
+        <v>1.017255488660683</v>
       </c>
       <c r="L16">
-        <v>0.9625672339840753</v>
+        <v>1.010296413307934</v>
       </c>
       <c r="M16">
-        <v>0.9090026347793041</v>
+        <v>1.025609309516498</v>
       </c>
       <c r="N16">
-        <v>0.9902360055535711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008940284339862</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.030115209060249</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023349761178298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.9329879561640489</v>
+        <v>0.9881206837164757</v>
       </c>
       <c r="D17">
-        <v>0.9443818272699639</v>
+        <v>1.00424386159059</v>
       </c>
       <c r="E17">
-        <v>0.9494927887325714</v>
+        <v>0.9972462277700491</v>
       </c>
       <c r="F17">
-        <v>0.8967265604944018</v>
+        <v>1.012281016113895</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.044729937698169</v>
+      </c>
       <c r="J17">
-        <v>0.963289335339078</v>
+        <v>1.016043146955767</v>
       </c>
       <c r="K17">
-        <v>0.9594407745807584</v>
+        <v>1.018177887470612</v>
       </c>
       <c r="L17">
-        <v>0.9644484020215398</v>
+        <v>1.011302713485241</v>
       </c>
       <c r="M17">
-        <v>0.9128249912049942</v>
+        <v>1.026077087403872</v>
       </c>
       <c r="N17">
-        <v>0.9909215501566937</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009240311682074</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.030354850859372</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024004578326129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.934618091589147</v>
+        <v>0.9888251104426924</v>
       </c>
       <c r="D18">
-        <v>0.9458117212262631</v>
+        <v>1.00470732894217</v>
       </c>
       <c r="E18">
-        <v>0.9508066230603357</v>
+        <v>0.9977442771950622</v>
       </c>
       <c r="F18">
-        <v>0.8992020764573722</v>
+        <v>1.011961796235379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.044860713151639</v>
+      </c>
       <c r="J18">
-        <v>0.9644009286640464</v>
+        <v>1.016317042142518</v>
       </c>
       <c r="K18">
-        <v>0.9606363103976789</v>
+        <v>1.018445299469726</v>
       </c>
       <c r="L18">
-        <v>0.9655321963202074</v>
+        <v>1.011602061283441</v>
       </c>
       <c r="M18">
-        <v>0.9150214943211065</v>
+        <v>1.025577199201493</v>
       </c>
       <c r="N18">
-        <v>0.9913163098439062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009266735397355</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.029719681047655</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024181823054013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9351705715859692</v>
+        <v>0.9885546008081973</v>
       </c>
       <c r="D19">
-        <v>0.9462965038063225</v>
+        <v>1.004436588812959</v>
       </c>
       <c r="E19">
-        <v>0.9512521107316971</v>
+        <v>0.997445493177301</v>
       </c>
       <c r="F19">
-        <v>0.9000400579721103</v>
+        <v>1.010522875049637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.044701209857979</v>
+      </c>
       <c r="J19">
-        <v>0.9647775966426727</v>
+        <v>1.015919883910206</v>
       </c>
       <c r="K19">
-        <v>0.9610414855829982</v>
+        <v>1.018115043037772</v>
       </c>
       <c r="L19">
-        <v>0.9658995171916929</v>
+        <v>1.0112436858411</v>
       </c>
       <c r="M19">
-        <v>0.9157650185012781</v>
+        <v>1.024098826132047</v>
       </c>
       <c r="N19">
-        <v>0.9914500672773806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009044680899874</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.028221319740557</v>
+      </c>
+      <c r="Q19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.023954816382988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.9326864919445739</v>
+        <v>0.9855144045909984</v>
       </c>
       <c r="D20">
-        <v>0.9441174749066895</v>
+        <v>1.00205634491231</v>
       </c>
       <c r="E20">
-        <v>0.949249918819112</v>
+        <v>0.9948808766437283</v>
       </c>
       <c r="F20">
-        <v>0.8962682634790594</v>
+        <v>1.006055201230522</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.043717905329871</v>
+      </c>
       <c r="J20">
-        <v>0.9630837330544813</v>
+        <v>1.013615372395656</v>
       </c>
       <c r="K20">
-        <v>0.9592196763650738</v>
+        <v>1.016063132090686</v>
       </c>
       <c r="L20">
-        <v>0.9642479766121738</v>
+        <v>1.009014340900667</v>
       </c>
       <c r="M20">
-        <v>0.9124183449660407</v>
+        <v>1.019992406355865</v>
       </c>
       <c r="N20">
-        <v>0.9908485309528742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008113576657737</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.024436452420306</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022507993432429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9243647236178947</v>
+        <v>0.9794473699747104</v>
       </c>
       <c r="D21">
-        <v>0.9368300174668031</v>
+        <v>0.9975698078225823</v>
       </c>
       <c r="E21">
-        <v>0.9425579409069329</v>
+        <v>0.9900591880331361</v>
       </c>
       <c r="F21">
-        <v>0.8835529745674856</v>
+        <v>1.001518122525012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.042038009108477</v>
+      </c>
       <c r="J21">
-        <v>0.9574043172380804</v>
+        <v>1.009830249730511</v>
       </c>
       <c r="K21">
-        <v>0.9531158534700641</v>
+        <v>1.012597367671036</v>
       </c>
       <c r="L21">
-        <v>0.9587158989000076</v>
+        <v>1.005231371704161</v>
       </c>
       <c r="M21">
-        <v>0.9011362197293883</v>
+        <v>1.01647079057669</v>
       </c>
       <c r="N21">
-        <v>0.988831214620486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006798263592193</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02160766232856</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020060793867976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9189268411737771</v>
+        <v>0.9755780792993163</v>
       </c>
       <c r="D22">
-        <v>0.9320781493052721</v>
+        <v>0.9947151426804395</v>
       </c>
       <c r="E22">
-        <v>0.9381978887064559</v>
+        <v>0.9869977625958144</v>
       </c>
       <c r="F22">
-        <v>0.8751722870297112</v>
+        <v>0.9987669124326339</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.040955001451713</v>
+      </c>
       <c r="J22">
-        <v>0.9536893144221932</v>
+        <v>1.00742889965223</v>
       </c>
       <c r="K22">
-        <v>0.9491269307944679</v>
+        <v>1.010392025685947</v>
       </c>
       <c r="L22">
-        <v>0.9551018128882196</v>
+        <v>1.002831273020473</v>
       </c>
       <c r="M22">
-        <v>0.8937010582421508</v>
+        <v>1.014362836670328</v>
       </c>
       <c r="N22">
-        <v>0.9875115978922938</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005967220347903</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019939310791276</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.0184876893918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9218302613229802</v>
+        <v>0.9776200208844127</v>
       </c>
       <c r="D23">
-        <v>0.9346143021411082</v>
+        <v>0.9962112723209038</v>
       </c>
       <c r="E23">
-        <v>0.9405245663640206</v>
+        <v>0.9886096281459632</v>
       </c>
       <c r="F23">
-        <v>0.8796543935683212</v>
+        <v>1.000222673087817</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.041525905491236</v>
+      </c>
       <c r="J23">
-        <v>0.9556731999240319</v>
+        <v>1.008690063326185</v>
       </c>
       <c r="K23">
-        <v>0.9512567392546502</v>
+        <v>1.011543598708866</v>
       </c>
       <c r="L23">
-        <v>0.9570313584261816</v>
+        <v>1.004092026813342</v>
       </c>
       <c r="M23">
-        <v>0.8976773345494121</v>
+        <v>1.015477010821343</v>
       </c>
       <c r="N23">
-        <v>0.9882162874062003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006400388920599</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02082113047562</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019292093262726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9328227731652882</v>
+        <v>0.9854762177021483</v>
       </c>
       <c r="D24">
-        <v>0.9442369760630602</v>
+        <v>1.00200166977581</v>
       </c>
       <c r="E24">
-        <v>0.9493597077748315</v>
+        <v>0.9948336198989617</v>
       </c>
       <c r="F24">
-        <v>0.8964754625204518</v>
+        <v>1.005845519496984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.043690179802554</v>
+      </c>
       <c r="J24">
-        <v>0.9631766797809137</v>
+        <v>1.013545043510536</v>
       </c>
       <c r="K24">
-        <v>0.9593196271813484</v>
+        <v>1.015993724798763</v>
       </c>
       <c r="L24">
-        <v>0.964338581668349</v>
+        <v>1.008952074506781</v>
       </c>
       <c r="M24">
-        <v>0.9126021924587524</v>
+        <v>1.019770753062852</v>
       </c>
       <c r="N24">
-        <v>0.9908815409152208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00807339524283</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.024219427208917</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022431011999885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9447902316876232</v>
+        <v>0.9941816098282158</v>
       </c>
       <c r="D25">
-        <v>0.9547512174199164</v>
+        <v>1.008452944499094</v>
       </c>
       <c r="E25">
-        <v>0.9590257074148681</v>
+        <v>1.001763391926767</v>
       </c>
       <c r="F25">
-        <v>0.9145534567294383</v>
+        <v>1.012135363684609</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.046012152481284</v>
+      </c>
       <c r="J25">
-        <v>0.9713300180825449</v>
+        <v>1.018906385236681</v>
       </c>
       <c r="K25">
-        <v>0.9680950741341485</v>
+        <v>1.020921441425167</v>
       </c>
       <c r="L25">
-        <v>0.9722952433810396</v>
+        <v>1.014334395044914</v>
       </c>
       <c r="M25">
-        <v>0.9286408352927152</v>
+        <v>1.024548169982864</v>
       </c>
       <c r="N25">
-        <v>0.9937758828440018</v>
+        <v>1.009920510272243</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.028000509908257</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.025912356756409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000774359144061</v>
+        <v>1.001718361092143</v>
       </c>
       <c r="D2">
-        <v>1.013337092613859</v>
+        <v>1.014192843695511</v>
       </c>
       <c r="E2">
-        <v>1.007028126095346</v>
+        <v>1.007887676391641</v>
       </c>
       <c r="F2">
-        <v>1.016957727289284</v>
+        <v>1.017366671115364</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047699919574394</v>
+        <v>1.048079821508324</v>
       </c>
       <c r="J2">
-        <v>1.022931933904611</v>
+        <v>1.0238477974673</v>
       </c>
       <c r="K2">
-        <v>1.024613695684927</v>
+        <v>1.025457928354173</v>
       </c>
       <c r="L2">
-        <v>1.018390408673543</v>
+        <v>1.019238206303861</v>
       </c>
       <c r="M2">
-        <v>1.028185763012366</v>
+        <v>1.02858924853293</v>
       </c>
       <c r="N2">
-        <v>1.011298734719317</v>
+        <v>1.013394420178621</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.030879465984089</v>
+        <v>1.031198801985516</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028474078573028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029079930456424</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018766662118521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005431912693895</v>
+        <v>1.006030579683911</v>
       </c>
       <c r="D3">
-        <v>1.0168166042872</v>
+        <v>1.017233768575342</v>
       </c>
       <c r="E3">
-        <v>1.010764372304152</v>
+        <v>1.011319268008031</v>
       </c>
       <c r="F3">
-        <v>1.020380159109398</v>
+        <v>1.020639150863274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048858176165386</v>
+        <v>1.049099754133959</v>
       </c>
       <c r="J3">
-        <v>1.025775585688967</v>
+        <v>1.026358184244963</v>
       </c>
       <c r="K3">
-        <v>1.02723874176548</v>
+        <v>1.027650788388226</v>
       </c>
       <c r="L3">
-        <v>1.021261349041919</v>
+        <v>1.021809336685228</v>
       </c>
       <c r="M3">
-        <v>1.030758747329413</v>
+        <v>1.031014588743738</v>
       </c>
       <c r="N3">
-        <v>1.012276817514447</v>
+        <v>1.014073692382887</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032915835248467</v>
+        <v>1.033118318705309</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030327569045378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030627532145418</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019263034084732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008376960493723</v>
+        <v>1.008760411814729</v>
       </c>
       <c r="D4">
-        <v>1.019023338489848</v>
+        <v>1.019165343300318</v>
       </c>
       <c r="E4">
-        <v>1.013132548114928</v>
+        <v>1.01349732217712</v>
       </c>
       <c r="F4">
-        <v>1.022554799570488</v>
+        <v>1.022720542139222</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049572500632409</v>
+        <v>1.049727499022428</v>
       </c>
       <c r="J4">
-        <v>1.027568783287424</v>
+        <v>1.027942649351092</v>
       </c>
       <c r="K4">
-        <v>1.028897464628578</v>
+        <v>1.029037833993387</v>
       </c>
       <c r="L4">
-        <v>1.023075017133339</v>
+        <v>1.023435530677192</v>
       </c>
       <c r="M4">
-        <v>1.032388420810795</v>
+        <v>1.032552270836499</v>
       </c>
       <c r="N4">
-        <v>1.012893526768473</v>
+        <v>1.014502546467085</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034205625118801</v>
+        <v>1.03433530256191</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031501367228516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031609301408203</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019574432351547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009604827639431</v>
+        <v>1.00989886751094</v>
       </c>
       <c r="D5">
-        <v>1.019948037809187</v>
+        <v>1.019975494533217</v>
       </c>
       <c r="E5">
-        <v>1.014121953600624</v>
+        <v>1.014407624292193</v>
       </c>
       <c r="F5">
-        <v>1.023462224786285</v>
+        <v>1.023589274264125</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049866830582109</v>
+        <v>1.04998577208268</v>
       </c>
       <c r="J5">
-        <v>1.028317264751244</v>
+        <v>1.028604177155822</v>
       </c>
       <c r="K5">
-        <v>1.029592806413947</v>
+        <v>1.029619955466183</v>
       </c>
       <c r="L5">
-        <v>1.023832472153279</v>
+        <v>1.024114897214428</v>
       </c>
       <c r="M5">
-        <v>1.033067779498894</v>
+        <v>1.033193417468282</v>
       </c>
       <c r="N5">
-        <v>1.013151781436726</v>
+        <v>1.014682198234821</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034743296515282</v>
+        <v>1.034842731339815</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032000293869645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03202887734189</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019705285823784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009816939811179</v>
+        <v>1.010095097684497</v>
       </c>
       <c r="D6">
-        <v>1.020111639686037</v>
+        <v>1.020118946471184</v>
       </c>
       <c r="E6">
-        <v>1.014293831804891</v>
+        <v>1.014565369386351</v>
       </c>
       <c r="F6">
-        <v>1.02361701802462</v>
+        <v>1.023737197883453</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049918546889943</v>
+        <v>1.050031077492859</v>
       </c>
       <c r="J6">
-        <v>1.028449006909399</v>
+        <v>1.028720457503654</v>
       </c>
       <c r="K6">
-        <v>1.029717862206816</v>
+        <v>1.029725087495694</v>
       </c>
       <c r="L6">
-        <v>1.023965402494469</v>
+        <v>1.02423386950027</v>
       </c>
       <c r="M6">
-        <v>1.03318430756043</v>
+        <v>1.033303158436075</v>
       </c>
       <c r="N6">
-        <v>1.013198280400146</v>
+        <v>1.01471447419821</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034835521401338</v>
+        <v>1.034929584641331</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032097559491447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032112922435444</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019729839107238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008411991800149</v>
+        <v>1.008800942267958</v>
       </c>
       <c r="D7">
-        <v>1.019059832027204</v>
+        <v>1.019205155878093</v>
       </c>
       <c r="E7">
-        <v>1.013163174714268</v>
+        <v>1.013533034186214</v>
       </c>
       <c r="F7">
-        <v>1.022574984055246</v>
+        <v>1.022743102738936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049583969131797</v>
+        <v>1.049741192121225</v>
       </c>
       <c r="J7">
-        <v>1.027596925616313</v>
+        <v>1.027976157895974</v>
       </c>
       <c r="K7">
-        <v>1.028930611706525</v>
+        <v>1.029074262601318</v>
       </c>
       <c r="L7">
-        <v>1.023102336861355</v>
+        <v>1.023467878214566</v>
       </c>
       <c r="M7">
-        <v>1.032405462137166</v>
+        <v>1.032571661886303</v>
       </c>
       <c r="N7">
-        <v>1.012906088405985</v>
+        <v>1.014540136803834</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034219112305048</v>
+        <v>1.034350649410274</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031545142433921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031657392653391</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019586295674622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002386658571038</v>
+        <v>1.003237450918407</v>
       </c>
       <c r="D8">
-        <v>1.01455287063974</v>
+        <v>1.015278517937359</v>
       </c>
       <c r="E8">
-        <v>1.00832348090483</v>
+        <v>1.009102091710294</v>
       </c>
       <c r="F8">
-        <v>1.018133066521436</v>
+        <v>1.018501461624597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04810827077487</v>
+        <v>1.048450977933792</v>
       </c>
       <c r="J8">
-        <v>1.023925854736869</v>
+        <v>1.024752156611044</v>
       </c>
       <c r="K8">
-        <v>1.025539257303563</v>
+        <v>1.026255433885088</v>
       </c>
       <c r="L8">
-        <v>1.019391873499173</v>
+        <v>1.020160164930691</v>
       </c>
       <c r="M8">
-        <v>1.029072890562908</v>
+        <v>1.029436517708088</v>
       </c>
       <c r="N8">
-        <v>1.011644386326215</v>
+        <v>1.013722660986556</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.031581577144175</v>
+        <v>1.031869367209264</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029151755725357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029669311588533</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018954459483849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9911846756202353</v>
+        <v>0.9928923640320734</v>
       </c>
       <c r="D9">
-        <v>1.006212107651506</v>
+        <v>1.008011428062006</v>
       </c>
       <c r="E9">
-        <v>0.9993693892362957</v>
+        <v>1.000902585507071</v>
       </c>
       <c r="F9">
-        <v>1.009971569039351</v>
+        <v>1.010713374439964</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045218638023312</v>
+        <v>1.045902074018368</v>
       </c>
       <c r="J9">
-        <v>1.017052612727862</v>
+        <v>1.018698632229507</v>
       </c>
       <c r="K9">
-        <v>1.019205195403154</v>
+        <v>1.020975849052242</v>
       </c>
       <c r="L9">
-        <v>1.012472705952457</v>
+        <v>1.013981035845073</v>
       </c>
       <c r="M9">
-        <v>1.022904909926292</v>
+        <v>1.023634993473875</v>
       </c>
       <c r="N9">
-        <v>1.009276844714077</v>
+        <v>1.012093465744742</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.026699955443244</v>
+        <v>1.027277778724157</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024669783604362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025932709504678</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017742698913609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9834463540630616</v>
+        <v>0.9857994504890493</v>
       </c>
       <c r="D10">
-        <v>1.000508199263373</v>
+        <v>1.003088603472697</v>
       </c>
       <c r="E10">
-        <v>0.9932363056979242</v>
+        <v>0.9953361824952393</v>
       </c>
       <c r="F10">
-        <v>1.004636038297673</v>
+        <v>1.005659382274899</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043151580522474</v>
+        <v>1.044089039562241</v>
       </c>
       <c r="J10">
-        <v>1.012332496753878</v>
+        <v>1.014588035315574</v>
       </c>
       <c r="K10">
-        <v>1.014868284073934</v>
+        <v>1.017402315257403</v>
       </c>
       <c r="L10">
-        <v>1.007728764098845</v>
+        <v>1.009790157291601</v>
       </c>
       <c r="M10">
-        <v>1.01892208912736</v>
+        <v>1.019927201153844</v>
       </c>
       <c r="N10">
-        <v>1.007666493122379</v>
+        <v>1.011112384371569</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.023600134745466</v>
+        <v>1.02439558091793</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021620306157701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02342470023362</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016924851322866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9811032852365703</v>
+        <v>0.9836393320010414</v>
       </c>
       <c r="D11">
-        <v>0.9989209458632791</v>
+        <v>1.001716151273818</v>
       </c>
       <c r="E11">
-        <v>0.9915226359122052</v>
+        <v>0.9937717327780655</v>
       </c>
       <c r="F11">
-        <v>1.004952276035569</v>
+        <v>1.006046803839462</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042650232115488</v>
+        <v>1.043658647782392</v>
       </c>
       <c r="J11">
-        <v>1.011283881588979</v>
+        <v>1.013708936396636</v>
       </c>
       <c r="K11">
-        <v>1.013863240294838</v>
+        <v>1.016605775903087</v>
       </c>
       <c r="L11">
-        <v>1.006606213467916</v>
+        <v>1.008812068741245</v>
       </c>
       <c r="M11">
-        <v>1.019781400105952</v>
+        <v>1.020855580184121</v>
       </c>
       <c r="N11">
-        <v>1.007433415382273</v>
+        <v>1.011188313311727</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024723440248838</v>
+        <v>1.025573104693578</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.020943139618824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.022898139345145</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016826080148923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9805751080460268</v>
+        <v>0.9831238933838785</v>
       </c>
       <c r="D12">
-        <v>0.9986191725736248</v>
+        <v>1.001433505815558</v>
       </c>
       <c r="E12">
-        <v>0.9912041191153077</v>
+        <v>0.9934536220725286</v>
       </c>
       <c r="F12">
-        <v>1.005953610765869</v>
+        <v>1.007047463291112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042598546314682</v>
+        <v>1.043611342048561</v>
       </c>
       <c r="J12">
-        <v>1.0112249389513</v>
+        <v>1.013660060340909</v>
       </c>
       <c r="K12">
-        <v>1.013772874957763</v>
+        <v>1.016533293552411</v>
       </c>
       <c r="L12">
-        <v>1.006501797008262</v>
+        <v>1.008707324294532</v>
       </c>
       <c r="M12">
-        <v>1.020967631003878</v>
+        <v>1.022040879168453</v>
       </c>
       <c r="N12">
-        <v>1.007507783181821</v>
+        <v>1.011335298229383</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.02599251347406</v>
+        <v>1.026841145746028</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020879246085591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02284689149386</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016867229185275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814319603580653</v>
+        <v>0.9838487020934945</v>
       </c>
       <c r="D13">
-        <v>0.9993138085177643</v>
+        <v>1.001985709363873</v>
       </c>
       <c r="E13">
-        <v>0.9919571730625594</v>
+        <v>0.9940799235486967</v>
       </c>
       <c r="F13">
-        <v>1.007578913281698</v>
+        <v>1.008611433915727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042905183475877</v>
+        <v>1.04386573180566</v>
       </c>
       <c r="J13">
-        <v>1.011947904058246</v>
+        <v>1.014257513783024</v>
       </c>
       <c r="K13">
-        <v>1.014410088547922</v>
+        <v>1.017031058530959</v>
       </c>
       <c r="L13">
-        <v>1.007195542340078</v>
+        <v>1.009277010151967</v>
       </c>
       <c r="M13">
-        <v>1.022518788385537</v>
+        <v>1.023532005146528</v>
       </c>
       <c r="N13">
-        <v>1.007835747802811</v>
+        <v>1.011518736124634</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.027498702566271</v>
+        <v>1.028299662010151</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.021327253471125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023196052043087</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017026264577797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9826454749176809</v>
+        <v>0.9849078342716071</v>
       </c>
       <c r="D14">
-        <v>1.000242086149226</v>
+        <v>1.002744917089477</v>
       </c>
       <c r="E14">
-        <v>0.9929576981923279</v>
+        <v>0.9949379955658344</v>
       </c>
       <c r="F14">
-        <v>1.008969879926</v>
+        <v>1.009933974826905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043276508297572</v>
+        <v>1.044176208922911</v>
       </c>
       <c r="J14">
-        <v>1.012795193204529</v>
+        <v>1.014958800941318</v>
       </c>
       <c r="K14">
-        <v>1.015176401393286</v>
+        <v>1.017632154459374</v>
       </c>
       <c r="L14">
-        <v>1.008030800350714</v>
+        <v>1.009973104558903</v>
       </c>
       <c r="M14">
-        <v>1.023741346687651</v>
+        <v>1.024687677837117</v>
       </c>
       <c r="N14">
-        <v>1.008175363000286</v>
+        <v>1.01166275484115</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.028639975442363</v>
+        <v>1.029387958928736</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021870532113206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023622638381918</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017189978009524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9832612439828372</v>
+        <v>0.9854534970434695</v>
       </c>
       <c r="D15">
-        <v>1.0007042066835</v>
+        <v>1.003129169083868</v>
       </c>
       <c r="E15">
-        <v>0.9934522850051106</v>
+        <v>0.9953695228673818</v>
       </c>
       <c r="F15">
-        <v>1.009496415376488</v>
+        <v>1.010430142392034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043452767000314</v>
+        <v>1.044324879216497</v>
       </c>
       <c r="J15">
-        <v>1.013191927177897</v>
+        <v>1.015289366813603</v>
       </c>
       <c r="K15">
-        <v>1.015541001082227</v>
+        <v>1.017920713240785</v>
       </c>
       <c r="L15">
-        <v>1.00842612618392</v>
+        <v>1.010306878184704</v>
       </c>
       <c r="M15">
-        <v>1.02417049290685</v>
+        <v>1.025087156006779</v>
       </c>
       <c r="N15">
-        <v>1.008321690237275</v>
+        <v>1.011715102553784</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.029016999164421</v>
+        <v>1.029741513756438</v>
       </c>
       <c r="Q15">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022134302059881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023833202066803</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017261450269342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9863649098427345</v>
+        <v>0.9882524197897441</v>
       </c>
       <c r="D16">
-        <v>1.002976285241015</v>
+        <v>1.005052876639568</v>
       </c>
       <c r="E16">
-        <v>0.9958894399659909</v>
+        <v>0.9975407491721735</v>
       </c>
       <c r="F16">
-        <v>1.011480366589803</v>
+        <v>1.01228456754482</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044285605652362</v>
+        <v>1.045037895106883</v>
       </c>
       <c r="J16">
-        <v>1.015051594733881</v>
+        <v>1.016861702971728</v>
       </c>
       <c r="K16">
-        <v>1.017255488660683</v>
+        <v>1.01929508380484</v>
       </c>
       <c r="L16">
-        <v>1.010296413307934</v>
+        <v>1.011917739795541</v>
       </c>
       <c r="M16">
-        <v>1.025609309516498</v>
+        <v>1.026399470064777</v>
       </c>
       <c r="N16">
-        <v>1.008940284339862</v>
+        <v>1.011916888743952</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.030115209060249</v>
+        <v>1.03073975645011</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023349761178298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02480846186506</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017564856254425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9881206837164757</v>
+        <v>0.9898632266704732</v>
       </c>
       <c r="D17">
-        <v>1.00424386159059</v>
+        <v>1.00614727939375</v>
       </c>
       <c r="E17">
-        <v>0.9972462277700491</v>
+        <v>0.9987745723400445</v>
       </c>
       <c r="F17">
-        <v>1.012281016113895</v>
+        <v>1.013024621469617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044729937698169</v>
+        <v>1.045425241612903</v>
       </c>
       <c r="J17">
-        <v>1.016043146955767</v>
+        <v>1.017716597717383</v>
       </c>
       <c r="K17">
-        <v>1.018177887470612</v>
+        <v>1.020048376257671</v>
       </c>
       <c r="L17">
-        <v>1.011302713485241</v>
+        <v>1.012804121911827</v>
       </c>
       <c r="M17">
-        <v>1.026077087403872</v>
+        <v>1.026808071868487</v>
       </c>
       <c r="N17">
-        <v>1.009240311682074</v>
+        <v>1.01202755899141</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.030354850859372</v>
+        <v>1.030932683449098</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024004578326129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025343949513423</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017715287655947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9888251104426924</v>
+        <v>0.9905410304368044</v>
       </c>
       <c r="D18">
-        <v>1.00470732894217</v>
+        <v>1.0065705276737</v>
       </c>
       <c r="E18">
-        <v>0.9977442771950622</v>
+        <v>0.9992564898040591</v>
       </c>
       <c r="F18">
-        <v>1.011961796235379</v>
+        <v>1.012696471407606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044860713151639</v>
+        <v>1.045545824631705</v>
       </c>
       <c r="J18">
-        <v>1.016317042142518</v>
+        <v>1.017966211338993</v>
       </c>
       <c r="K18">
-        <v>1.018445299469726</v>
+        <v>1.020276800953368</v>
       </c>
       <c r="L18">
-        <v>1.011602061283441</v>
+        <v>1.013088069555879</v>
       </c>
       <c r="M18">
-        <v>1.025577199201493</v>
+        <v>1.026299587880565</v>
       </c>
       <c r="N18">
-        <v>1.009266735397355</v>
+        <v>1.01201212161214</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.029719681047655</v>
+        <v>1.030290839770791</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024181823054013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025492501588745</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017728409210354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9885546008081973</v>
+        <v>0.9903437151071514</v>
       </c>
       <c r="D19">
-        <v>1.004436588812959</v>
+        <v>1.006375337089165</v>
       </c>
       <c r="E19">
-        <v>0.997445493177301</v>
+        <v>0.9990312694789946</v>
       </c>
       <c r="F19">
-        <v>1.010522875049637</v>
+        <v>1.011292871877909</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044701209857979</v>
+        <v>1.045415661714023</v>
       </c>
       <c r="J19">
-        <v>1.015919883910206</v>
+        <v>1.017639762072037</v>
       </c>
       <c r="K19">
-        <v>1.018115043037772</v>
+        <v>1.020020965971701</v>
       </c>
       <c r="L19">
-        <v>1.0112436858411</v>
+        <v>1.012802112111184</v>
       </c>
       <c r="M19">
-        <v>1.024098826132047</v>
+        <v>1.02485596820582</v>
       </c>
       <c r="N19">
-        <v>1.009044680899874</v>
+        <v>1.011859903964573</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.028221319740557</v>
+        <v>1.028820156320066</v>
       </c>
       <c r="Q19">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023954816382988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025318736459458</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017618393348229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9855144045909984</v>
+        <v>0.9876623137752981</v>
       </c>
       <c r="D20">
-        <v>1.00205634491231</v>
+        <v>1.004401087813308</v>
       </c>
       <c r="E20">
-        <v>0.9948808766437283</v>
+        <v>0.9967981630555437</v>
       </c>
       <c r="F20">
-        <v>1.006055201230522</v>
+        <v>1.006988996815219</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043717905329871</v>
+        <v>1.044574637946288</v>
       </c>
       <c r="J20">
-        <v>1.013615372395656</v>
+        <v>1.015677259106934</v>
       </c>
       <c r="K20">
-        <v>1.016063132090686</v>
+        <v>1.018366988344342</v>
       </c>
       <c r="L20">
-        <v>1.009014340900667</v>
+        <v>1.010897547527001</v>
       </c>
       <c r="M20">
-        <v>1.019992406355865</v>
+        <v>1.020910056390364</v>
       </c>
       <c r="N20">
-        <v>1.008113576657737</v>
+        <v>1.011308245767683</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.024436452420306</v>
+        <v>1.025162689929199</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022507993432429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024153677532422</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017150718947399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9794473699747104</v>
+        <v>0.9822525130623736</v>
       </c>
       <c r="D21">
-        <v>0.9975698078225823</v>
+        <v>1.00065311554056</v>
       </c>
       <c r="E21">
-        <v>0.9900591880331361</v>
+        <v>0.992564234616405</v>
       </c>
       <c r="F21">
-        <v>1.001518122525012</v>
+        <v>1.00274061041226</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042038009108477</v>
+        <v>1.04315301577062</v>
       </c>
       <c r="J21">
-        <v>1.009830249730511</v>
+        <v>1.012511457290264</v>
       </c>
       <c r="K21">
-        <v>1.012597367671036</v>
+        <v>1.015622125003574</v>
       </c>
       <c r="L21">
-        <v>1.005231371704161</v>
+        <v>1.007687862613516</v>
       </c>
       <c r="M21">
-        <v>1.01647079057669</v>
+        <v>1.017670246446869</v>
       </c>
       <c r="N21">
-        <v>1.006798263592193</v>
+        <v>1.010879739820414</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02160766232856</v>
+        <v>1.022556976324276</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020060793867976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022216548798933</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016519894308713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9755780792993163</v>
+        <v>0.9788037166454684</v>
       </c>
       <c r="D22">
-        <v>0.9947151426804395</v>
+        <v>0.9982696607994708</v>
       </c>
       <c r="E22">
-        <v>0.9869977625958144</v>
+        <v>0.9898785165899751</v>
       </c>
       <c r="F22">
-        <v>0.9987669124326339</v>
+        <v>1.000174093779521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040955001451713</v>
+        <v>1.042234266854984</v>
       </c>
       <c r="J22">
-        <v>1.00742889965223</v>
+        <v>1.010503273647913</v>
       </c>
       <c r="K22">
-        <v>1.010392025685947</v>
+        <v>1.01387547415823</v>
       </c>
       <c r="L22">
-        <v>1.002831273020473</v>
+        <v>1.005653184416367</v>
       </c>
       <c r="M22">
-        <v>1.014362836670328</v>
+        <v>1.015742102626906</v>
       </c>
       <c r="N22">
-        <v>1.005967220347903</v>
+        <v>1.010604665286975</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019939310791276</v>
+        <v>1.021030938773173</v>
       </c>
       <c r="Q22">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R22">
-        <v>1.0184876893918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.020966510478889</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016118695389266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9776200208844127</v>
+        <v>0.9806096706001041</v>
       </c>
       <c r="D23">
-        <v>0.9962112723209038</v>
+        <v>0.999505419357086</v>
       </c>
       <c r="E23">
-        <v>0.9886096281459632</v>
+        <v>0.9912788922443263</v>
       </c>
       <c r="F23">
-        <v>1.000222673087817</v>
+        <v>1.001526195771457</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041525905491236</v>
+        <v>1.042713000155397</v>
       </c>
       <c r="J23">
-        <v>1.008690063326185</v>
+        <v>1.01154384050205</v>
       </c>
       <c r="K23">
-        <v>1.011543598708866</v>
+        <v>1.014773641525241</v>
       </c>
       <c r="L23">
-        <v>1.004092026813342</v>
+        <v>1.006708249571351</v>
       </c>
       <c r="M23">
-        <v>1.015477010821343</v>
+        <v>1.016755366896125</v>
       </c>
       <c r="N23">
-        <v>1.006400388920599</v>
+        <v>1.010700471540172</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02082113047562</v>
+        <v>1.021832891480274</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019292093262726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.021590802168692</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01632028401333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9854762177021483</v>
+        <v>0.9876363341695689</v>
       </c>
       <c r="D24">
-        <v>1.00200166977581</v>
+        <v>1.004358781611097</v>
       </c>
       <c r="E24">
-        <v>0.9948336198989617</v>
+        <v>0.9967633099467395</v>
       </c>
       <c r="F24">
-        <v>1.005845519496984</v>
+        <v>1.006785354007018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043690179802554</v>
+        <v>1.044551818285853</v>
       </c>
       <c r="J24">
-        <v>1.013545043510536</v>
+        <v>1.015618762610521</v>
       </c>
       <c r="K24">
-        <v>1.015993724798763</v>
+        <v>1.018309782112742</v>
       </c>
       <c r="L24">
-        <v>1.008952074506781</v>
+        <v>1.01084750491244</v>
       </c>
       <c r="M24">
-        <v>1.019770753062852</v>
+        <v>1.020694349898103</v>
       </c>
       <c r="N24">
-        <v>1.00807339524283</v>
+        <v>1.011278426803485</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.024219427208917</v>
+        <v>1.024950408798936</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022431011999885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024082683521836</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017126338834183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941816098282158</v>
+        <v>0.9956423565905046</v>
       </c>
       <c r="D25">
-        <v>1.008452944499094</v>
+        <v>1.009950953971491</v>
       </c>
       <c r="E25">
-        <v>1.001763391926767</v>
+        <v>1.003078365626012</v>
       </c>
       <c r="F25">
-        <v>1.012135363684609</v>
+        <v>1.012769368675998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046012152481284</v>
+        <v>1.046597763442174</v>
       </c>
       <c r="J25">
-        <v>1.018906385236681</v>
+        <v>1.020317268060336</v>
       </c>
       <c r="K25">
-        <v>1.020921441425167</v>
+        <v>1.022396733503582</v>
       </c>
       <c r="L25">
-        <v>1.014334395044914</v>
+        <v>1.015629081154768</v>
       </c>
       <c r="M25">
-        <v>1.024548169982864</v>
+        <v>1.025172638697201</v>
       </c>
       <c r="N25">
-        <v>1.009920510272243</v>
+        <v>1.012500813510929</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.028000509908257</v>
+        <v>1.028494743618714</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.025912356756409</v>
+        <v>1.026969205696689</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018074031320552</v>
       </c>
     </row>
   </sheetData>
